--- a/doc/Zeituebersicht.xlsx
+++ b/doc/Zeituebersicht.xlsx
@@ -1,55 +1,58 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreas/Documents/Privat/Bildung/03_Studium/06_SoSe17/Vorlesungen/DT/00_git/dt_it6_ss2017/doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\OneDrive\Studium\Git\DT_IT6_SS2017\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17440" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="458" windowWidth="28800" windowHeight="17438" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Team Meetings" sheetId="6" r:id="rId1"/>
     <sheet name="Andreas A" sheetId="5" r:id="rId2"/>
     <sheet name="Lukas" sheetId="1" r:id="rId3"/>
-    <sheet name="Philip" sheetId="4" r:id="rId4"/>
-    <sheet name="Martin" sheetId="3" r:id="rId5"/>
-    <sheet name="Andreas Z" sheetId="8" r:id="rId6"/>
+    <sheet name="Kevin" sheetId="9" r:id="rId4"/>
+    <sheet name="Philip" sheetId="4" r:id="rId5"/>
+    <sheet name="Martin" sheetId="3" r:id="rId6"/>
+    <sheet name="Andreas Z" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="Arbeitswochenstunden" localSheetId="1">'Andreas A'!$B$6</definedName>
-    <definedName name="Arbeitswochenstunden" localSheetId="5">'Andreas Z'!$B$6</definedName>
-    <definedName name="Arbeitswochenstunden" localSheetId="4">Martin!$B$6</definedName>
-    <definedName name="Arbeitswochenstunden" localSheetId="3">Philip!$B$6</definedName>
+    <definedName name="Arbeitswochenstunden" localSheetId="6">'Andreas Z'!$B$6</definedName>
+    <definedName name="Arbeitswochenstunden" localSheetId="3">Kevin!$B$6</definedName>
+    <definedName name="Arbeitswochenstunden" localSheetId="5">Martin!$B$6</definedName>
+    <definedName name="Arbeitswochenstunden" localSheetId="4">Philip!$B$6</definedName>
     <definedName name="Arbeitswochenstunden" localSheetId="0">'Team Meetings'!$B$6</definedName>
     <definedName name="Arbeitswochenstunden">Lukas!$B$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Andreas A'!$8:$8</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="5">'Andreas Z'!$8:$8</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="6">'Andreas Z'!$8:$8</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">Kevin!$8:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">Lukas!$8:$8</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">Martin!$8:$8</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">Philip!$8:$8</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">Martin!$8:$8</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">Philip!$8:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Team Meetings'!$8:$8</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="31">
   <si>
     <t>Arbeitszeittabelle</t>
   </si>
@@ -136,17 +139,23 @@
   </si>
   <si>
     <t>Mindmap: Weitere Routen-Berechnungen</t>
+  </si>
+  <si>
+    <t>Kevin Krämer</t>
+  </si>
+  <si>
+    <t>Besprechung Allgemein</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="hh:mm:ss;@"/>
     <numFmt numFmtId="165" formatCode="hh:mm;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,14 +304,14 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="51">
+  <dxfs count="59">
     <dxf>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
     </dxf>
@@ -334,7 +343,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
+      <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -343,7 +352,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
+      <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
     </dxf>
     <dxf>
       <fill>
@@ -385,7 +394,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
+      <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -394,7 +403,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
+      <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
     </dxf>
     <dxf>
       <fill>
@@ -436,7 +445,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
+      <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -445,7 +454,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
+      <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
     </dxf>
     <dxf>
       <fill>
@@ -487,7 +496,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
+      <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -496,7 +505,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
+      <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
     </dxf>
     <dxf>
       <fill>
@@ -538,7 +547,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
+      <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -547,7 +556,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
+      <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
     </dxf>
     <dxf>
       <fill>
@@ -589,13 +598,40 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
+      <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="hh:mm;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="hh:mm;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="hh:mm;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="hh:mm;@"/>
     </dxf>
     <dxf>
       <font>
@@ -613,7 +649,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
+      <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -622,7 +658,31 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
     </dxf>
     <dxf>
       <fill>
@@ -659,8 +719,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Arbeitszeittabelle für Mitarbeiter" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Arbeitszeittabelle für Mitarbeiter" pivot="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="50"/>
-      <tableStyleElement type="headerRow" dxfId="49"/>
+      <tableStyleElement type="wholeTable" dxfId="58"/>
+      <tableStyleElement type="headerRow" dxfId="57"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -675,17 +735,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Uhrzeit6" displayName="Uhrzeit6" ref="B8:I13" totalsRowShown="0" headerRowDxfId="48" headerRowCellStyle="Heading 3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Uhrzeit6" displayName="Uhrzeit6" ref="B8:I13" totalsRowShown="0" headerRowDxfId="56">
   <autoFilter ref="B8:I13"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Datumsangaben" dataDxfId="47"/>
-    <tableColumn id="7" name="Fehlende Teammitglieder" dataDxfId="46"/>
-    <tableColumn id="8" name="Thema" dataDxfId="45"/>
-    <tableColumn id="2" name="Anwesenheitszeit" dataDxfId="44"/>
-    <tableColumn id="3" name="Beginn der Mittagspause" dataDxfId="43"/>
-    <tableColumn id="4" name="Ende der Mittagspause" dataDxfId="42"/>
-    <tableColumn id="5" name="Abwesenheitszeit" dataDxfId="41"/>
-    <tableColumn id="6" name="Arbeitsstunden" dataDxfId="40">
+    <tableColumn id="1" name="Datumsangaben" dataDxfId="55"/>
+    <tableColumn id="7" name="Fehlende Teammitglieder" dataDxfId="54"/>
+    <tableColumn id="8" name="Thema" dataDxfId="53"/>
+    <tableColumn id="2" name="Anwesenheitszeit" dataDxfId="52"/>
+    <tableColumn id="3" name="Beginn der Mittagspause" dataDxfId="51"/>
+    <tableColumn id="4" name="Ende der Mittagspause" dataDxfId="50"/>
+    <tableColumn id="5" name="Abwesenheitszeit" dataDxfId="49"/>
+    <tableColumn id="6" name="Arbeitsstunden" dataDxfId="48">
       <calculatedColumnFormula>IFERROR(IF(COUNT(Uhrzeit6[[#This Row],[Anwesenheitszeit]:[Abwesenheitszeit]])=4,(IF(Uhrzeit6[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit6[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit6[[#This Row],[Abwesenheitszeit]])-Uhrzeit6[[#This Row],[Ende der Mittagspause]]+Uhrzeit6[[#This Row],[Beginn der Mittagspause]]-Uhrzeit6[[#This Row],[Anwesenheitszeit]],IF(AND(LEN(Uhrzeit6[[#This Row],[Anwesenheitszeit]])&lt;&gt;0,LEN(Uhrzeit6[[#This Row],[Abwesenheitszeit]])&lt;&gt;0),(IF(Uhrzeit6[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit6[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit6[[#This Row],[Abwesenheitszeit]])-Uhrzeit6[[#This Row],[Anwesenheitszeit]],0))*24,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -699,16 +759,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Uhrzeit5" displayName="Uhrzeit5" ref="B8:H13" totalsRowShown="0" headerRowDxfId="39" headerRowCellStyle="Heading 3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Uhrzeit5" displayName="Uhrzeit5" ref="B8:H13" totalsRowShown="0" headerRowDxfId="47">
   <autoFilter ref="B8:H13"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Datumsangaben" dataDxfId="38"/>
-    <tableColumn id="7" name="Thema" dataDxfId="37"/>
-    <tableColumn id="2" name="Anwesenheitszeit" dataDxfId="36"/>
-    <tableColumn id="3" name="Beginn der Mittagspause" dataDxfId="35"/>
-    <tableColumn id="4" name="Ende der Mittagspause" dataDxfId="34"/>
-    <tableColumn id="5" name="Abwesenheitszeit" dataDxfId="33"/>
-    <tableColumn id="6" name="Arbeitsstunden" dataDxfId="32">
+    <tableColumn id="1" name="Datumsangaben" dataDxfId="46"/>
+    <tableColumn id="7" name="Thema" dataDxfId="45"/>
+    <tableColumn id="2" name="Anwesenheitszeit" dataDxfId="44"/>
+    <tableColumn id="3" name="Beginn der Mittagspause" dataDxfId="43"/>
+    <tableColumn id="4" name="Ende der Mittagspause" dataDxfId="42"/>
+    <tableColumn id="5" name="Abwesenheitszeit" dataDxfId="41"/>
+    <tableColumn id="6" name="Arbeitsstunden" dataDxfId="40">
       <calculatedColumnFormula>IFERROR(IF(COUNT(Uhrzeit5[[#This Row],[Anwesenheitszeit]:[Abwesenheitszeit]])=4,(IF(Uhrzeit5[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit5[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit5[[#This Row],[Abwesenheitszeit]])-Uhrzeit5[[#This Row],[Ende der Mittagspause]]+Uhrzeit5[[#This Row],[Beginn der Mittagspause]]-Uhrzeit5[[#This Row],[Anwesenheitszeit]],IF(AND(LEN(Uhrzeit5[[#This Row],[Anwesenheitszeit]])&lt;&gt;0,LEN(Uhrzeit5[[#This Row],[Abwesenheitszeit]])&lt;&gt;0),(IF(Uhrzeit5[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit5[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit5[[#This Row],[Abwesenheitszeit]])-Uhrzeit5[[#This Row],[Anwesenheitszeit]],0))*24,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -722,16 +782,16 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Uhrzeit" displayName="Uhrzeit" ref="B8:H13" totalsRowShown="0" headerRowDxfId="31" headerRowCellStyle="Heading 3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Uhrzeit" displayName="Uhrzeit" ref="B8:H13" totalsRowShown="0" headerRowDxfId="39">
   <autoFilter ref="B8:H13"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Datumsangaben" dataDxfId="30"/>
-    <tableColumn id="7" name="Thema" dataDxfId="29"/>
-    <tableColumn id="2" name="Anwesenheitszeit" dataDxfId="28"/>
-    <tableColumn id="3" name="Beginn der Mittagspause" dataDxfId="27"/>
-    <tableColumn id="4" name="Ende der Mittagspause" dataDxfId="26"/>
-    <tableColumn id="5" name="Abwesenheitszeit" dataDxfId="25"/>
-    <tableColumn id="6" name="Arbeitsstunden" dataDxfId="24">
+    <tableColumn id="1" name="Datumsangaben" dataDxfId="38"/>
+    <tableColumn id="7" name="Thema" dataDxfId="37"/>
+    <tableColumn id="2" name="Anwesenheitszeit" dataDxfId="36"/>
+    <tableColumn id="3" name="Beginn der Mittagspause" dataDxfId="35"/>
+    <tableColumn id="4" name="Ende der Mittagspause" dataDxfId="34"/>
+    <tableColumn id="5" name="Abwesenheitszeit" dataDxfId="33"/>
+    <tableColumn id="6" name="Arbeitsstunden" dataDxfId="32">
       <calculatedColumnFormula>IFERROR(IF(COUNT(Uhrzeit[[#This Row],[Anwesenheitszeit]:[Abwesenheitszeit]])=4,(IF(Uhrzeit[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit[[#This Row],[Abwesenheitszeit]])-Uhrzeit[[#This Row],[Ende der Mittagspause]]+Uhrzeit[[#This Row],[Beginn der Mittagspause]]-Uhrzeit[[#This Row],[Anwesenheitszeit]],IF(AND(LEN(Uhrzeit[[#This Row],[Anwesenheitszeit]])&lt;&gt;0,LEN(Uhrzeit[[#This Row],[Abwesenheitszeit]])&lt;&gt;0),(IF(Uhrzeit[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit[[#This Row],[Abwesenheitszeit]])-Uhrzeit[[#This Row],[Anwesenheitszeit]],0))*24,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -745,16 +805,39 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Uhrzeit34" displayName="Uhrzeit34" ref="B8:H13" totalsRowShown="0" headerRowDxfId="23" headerRowCellStyle="Heading 3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Uhrzeit8" displayName="Uhrzeit8" ref="B8:H13" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="B8:H13"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Datumsangaben" dataDxfId="22"/>
-    <tableColumn id="7" name="Thema" dataDxfId="21"/>
-    <tableColumn id="2" name="Anwesenheitszeit" dataDxfId="20"/>
-    <tableColumn id="3" name="Beginn der Mittagspause" dataDxfId="19"/>
-    <tableColumn id="4" name="Ende der Mittagspause" dataDxfId="18"/>
-    <tableColumn id="5" name="Abwesenheitszeit" dataDxfId="17"/>
-    <tableColumn id="6" name="Arbeitsstunden" dataDxfId="16">
+    <tableColumn id="1" name="Datumsangaben" dataDxfId="6"/>
+    <tableColumn id="7" name="Thema" dataDxfId="5"/>
+    <tableColumn id="2" name="Anwesenheitszeit" dataDxfId="4"/>
+    <tableColumn id="3" name="Beginn der Mittagspause" dataDxfId="3"/>
+    <tableColumn id="4" name="Ende der Mittagspause" dataDxfId="2"/>
+    <tableColumn id="5" name="Abwesenheitszeit" dataDxfId="1"/>
+    <tableColumn id="6" name="Arbeitsstunden" dataDxfId="0">
+      <calculatedColumnFormula>IFERROR(IF(COUNT(Uhrzeit8[[#This Row],[Anwesenheitszeit]:[Abwesenheitszeit]])=4,(IF(Uhrzeit8[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit8[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit8[[#This Row],[Abwesenheitszeit]])-Uhrzeit8[[#This Row],[Ende der Mittagspause]]+Uhrzeit8[[#This Row],[Beginn der Mittagspause]]-Uhrzeit8[[#This Row],[Anwesenheitszeit]],IF(AND(LEN(Uhrzeit8[[#This Row],[Anwesenheitszeit]])&lt;&gt;0,LEN(Uhrzeit8[[#This Row],[Abwesenheitszeit]])&lt;&gt;0),(IF(Uhrzeit8[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit8[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit8[[#This Row],[Abwesenheitszeit]])-Uhrzeit8[[#This Row],[Anwesenheitszeit]],0))*24,0)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="Arbeitszeittabelle für Mitarbeiter" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
+      <x14:table altText="Arbeitszeittabelle für Mitarbeiter" altTextSummary="Geben Sie die täglichen Anwesenheits- und Abwesenheitszeiten einschließlich Mittagspausen sowie die gesamten Arbeitsstunden, die regulären Arbeitsstunden und die für Sie berechneten Überstunden an."/>
+    </ext>
+  </extLst>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Uhrzeit34" displayName="Uhrzeit34" ref="B8:H13" totalsRowShown="0" headerRowDxfId="31">
+  <autoFilter ref="B8:H13"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Datumsangaben" dataDxfId="30"/>
+    <tableColumn id="7" name="Thema" dataDxfId="29"/>
+    <tableColumn id="2" name="Anwesenheitszeit" dataDxfId="28"/>
+    <tableColumn id="3" name="Beginn der Mittagspause" dataDxfId="27"/>
+    <tableColumn id="4" name="Ende der Mittagspause" dataDxfId="26"/>
+    <tableColumn id="5" name="Abwesenheitszeit" dataDxfId="25"/>
+    <tableColumn id="6" name="Arbeitsstunden" dataDxfId="24">
       <calculatedColumnFormula>IFERROR(IF(COUNT(Uhrzeit34[[#This Row],[Anwesenheitszeit]:[Abwesenheitszeit]])=4,(IF(Uhrzeit34[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit34[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit34[[#This Row],[Abwesenheitszeit]])-Uhrzeit34[[#This Row],[Ende der Mittagspause]]+Uhrzeit34[[#This Row],[Beginn der Mittagspause]]-Uhrzeit34[[#This Row],[Anwesenheitszeit]],IF(AND(LEN(Uhrzeit34[[#This Row],[Anwesenheitszeit]])&lt;&gt;0,LEN(Uhrzeit34[[#This Row],[Abwesenheitszeit]])&lt;&gt;0),(IF(Uhrzeit34[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit34[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit34[[#This Row],[Abwesenheitszeit]])-Uhrzeit34[[#This Row],[Anwesenheitszeit]],0))*24,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -767,17 +850,17 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Uhrzeit3" displayName="Uhrzeit3" ref="B8:H13" totalsRowShown="0" headerRowDxfId="15" headerRowCellStyle="Heading 3">
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Uhrzeit3" displayName="Uhrzeit3" ref="B8:H13" totalsRowShown="0" headerRowDxfId="23">
   <autoFilter ref="B8:H13"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Datumsangaben" dataDxfId="14"/>
-    <tableColumn id="7" name="Thema" dataDxfId="13"/>
-    <tableColumn id="2" name="Anwesenheitszeit" dataDxfId="12"/>
-    <tableColumn id="3" name="Beginn der Mittagspause" dataDxfId="11"/>
-    <tableColumn id="4" name="Ende der Mittagspause" dataDxfId="10"/>
-    <tableColumn id="5" name="Abwesenheitszeit" dataDxfId="9"/>
-    <tableColumn id="6" name="Arbeitsstunden" dataDxfId="8">
+    <tableColumn id="1" name="Datumsangaben" dataDxfId="22"/>
+    <tableColumn id="7" name="Thema" dataDxfId="21"/>
+    <tableColumn id="2" name="Anwesenheitszeit" dataDxfId="20"/>
+    <tableColumn id="3" name="Beginn der Mittagspause" dataDxfId="19"/>
+    <tableColumn id="4" name="Ende der Mittagspause" dataDxfId="18"/>
+    <tableColumn id="5" name="Abwesenheitszeit" dataDxfId="17"/>
+    <tableColumn id="6" name="Arbeitsstunden" dataDxfId="16">
       <calculatedColumnFormula>IFERROR(IF(COUNT(Uhrzeit3[[#This Row],[Anwesenheitszeit]:[Abwesenheitszeit]])=4,(IF(Uhrzeit3[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit3[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit3[[#This Row],[Abwesenheitszeit]])-Uhrzeit3[[#This Row],[Ende der Mittagspause]]+Uhrzeit3[[#This Row],[Beginn der Mittagspause]]-Uhrzeit3[[#This Row],[Anwesenheitszeit]],IF(AND(LEN(Uhrzeit3[[#This Row],[Anwesenheitszeit]])&lt;&gt;0,LEN(Uhrzeit3[[#This Row],[Abwesenheitszeit]])&lt;&gt;0),(IF(Uhrzeit3[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit3[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit3[[#This Row],[Abwesenheitszeit]])-Uhrzeit3[[#This Row],[Anwesenheitszeit]],0))*24,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -790,17 +873,17 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Uhrzeit37" displayName="Uhrzeit37" ref="B8:H13" totalsRowShown="0" headerRowDxfId="7" headerRowCellStyle="Heading 3">
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Uhrzeit37" displayName="Uhrzeit37" ref="B8:H13" totalsRowShown="0" headerRowDxfId="15">
   <autoFilter ref="B8:H13"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Datumsangaben" dataDxfId="6"/>
-    <tableColumn id="7" name="Thema" dataDxfId="5"/>
-    <tableColumn id="2" name="Anwesenheitszeit" dataDxfId="4"/>
-    <tableColumn id="3" name="Beginn der Mittagspause" dataDxfId="3"/>
-    <tableColumn id="4" name="Ende der Mittagspause" dataDxfId="2"/>
-    <tableColumn id="5" name="Abwesenheitszeit" dataDxfId="1"/>
-    <tableColumn id="6" name="Arbeitsstunden" dataDxfId="0">
+    <tableColumn id="1" name="Datumsangaben" dataDxfId="14"/>
+    <tableColumn id="7" name="Thema" dataDxfId="13"/>
+    <tableColumn id="2" name="Anwesenheitszeit" dataDxfId="12"/>
+    <tableColumn id="3" name="Beginn der Mittagspause" dataDxfId="11"/>
+    <tableColumn id="4" name="Ende der Mittagspause" dataDxfId="10"/>
+    <tableColumn id="5" name="Abwesenheitszeit" dataDxfId="9"/>
+    <tableColumn id="6" name="Arbeitsstunden" dataDxfId="8">
       <calculatedColumnFormula>IFERROR(IF(COUNT(Uhrzeit37[[#This Row],[Anwesenheitszeit]:[Abwesenheitszeit]])=4,(IF(Uhrzeit37[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit37[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit37[[#This Row],[Abwesenheitszeit]])-Uhrzeit37[[#This Row],[Ende der Mittagspause]]+Uhrzeit37[[#This Row],[Beginn der Mittagspause]]-Uhrzeit37[[#This Row],[Anwesenheitszeit]],IF(AND(LEN(Uhrzeit37[[#This Row],[Anwesenheitszeit]])&lt;&gt;0,LEN(Uhrzeit37[[#This Row],[Abwesenheitszeit]])&lt;&gt;0),(IF(Uhrzeit37[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit37[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit37[[#This Row],[Abwesenheitszeit]])-Uhrzeit37[[#This Row],[Anwesenheitszeit]],0))*24,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1016,7 +1099,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1026,22 +1109,22 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="20.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.5" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="25.1640625" customWidth="1"/>
-    <col min="4" max="4" width="31.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="23.83203125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="24.1640625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="2.46484375" customWidth="1"/>
+    <col min="2" max="2" width="17.46484375" customWidth="1"/>
+    <col min="3" max="3" width="25.1328125" customWidth="1"/>
+    <col min="4" max="4" width="31.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1328125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="23.796875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="24.1328125" style="9" customWidth="1"/>
     <col min="8" max="8" width="19.33203125" style="9" customWidth="1"/>
-    <col min="9" max="9" width="16.5" style="11" customWidth="1"/>
+    <col min="9" max="9" width="16.46484375" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" s="1" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:9" s="2" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="2:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:9" s="1" customFormat="1" ht="10.5" customHeight="1"/>
+    <row r="2" spans="2:9" s="2" customFormat="1" ht="3.75" customHeight="1"/>
+    <row r="3" spans="2:9" ht="33.75" customHeight="1">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1053,7 +1136,7 @@
       <c r="H3"/>
       <c r="I3"/>
     </row>
-    <row r="4" spans="2:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" ht="34.5" customHeight="1">
       <c r="B4" s="6" t="s">
         <v>17</v>
       </c>
@@ -1065,7 +1148,7 @@
       <c r="H4"/>
       <c r="I4"/>
     </row>
-    <row r="5" spans="2:9" s="3" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:9" s="3" customFormat="1" ht="42.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
@@ -1075,7 +1158,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="2:9" ht="26" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" ht="25.5">
       <c r="B6" s="7">
         <f>SUBTOTAL(109,Uhrzeit6[Arbeitsstunden])</f>
         <v>3.5000000000000009</v>
@@ -1088,7 +1171,7 @@
       <c r="H6"/>
       <c r="I6"/>
     </row>
-    <row r="7" spans="2:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:9" ht="11.25" customHeight="1">
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -1098,7 +1181,7 @@
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="2:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9" ht="36.75" customHeight="1">
       <c r="B8" s="8" t="s">
         <v>1</v>
       </c>
@@ -1124,7 +1207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9" ht="20.25" customHeight="1">
       <c r="B9" s="13">
         <v>42815</v>
       </c>
@@ -1147,7 +1230,7 @@
         <v>3.2500000000000004</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:9" ht="20.25" customHeight="1">
       <c r="B10" s="13">
         <v>42822</v>
       </c>
@@ -1170,7 +1253,7 @@
         <v>0.25000000000000044</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9" ht="20.25" customHeight="1">
       <c r="B11" s="13" t="s">
         <v>2</v>
       </c>
@@ -1193,7 +1276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:9" ht="20.25" customHeight="1">
       <c r="B12" s="13" t="s">
         <v>2</v>
       </c>
@@ -1216,7 +1299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:9" ht="20.25" customHeight="1">
       <c r="B13" s="13" t="s">
         <v>2</v>
       </c>
@@ -1254,7 +1337,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1264,20 +1347,20 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="20.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.5" customWidth="1"/>
+    <col min="1" max="1" width="2.46484375" customWidth="1"/>
     <col min="2" max="3" width="25.33203125" customWidth="1"/>
-    <col min="4" max="4" width="26.1640625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="26.1328125" style="9" customWidth="1"/>
     <col min="5" max="5" width="32" style="9" customWidth="1"/>
-    <col min="6" max="6" width="31.1640625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="31.1328125" style="9" customWidth="1"/>
     <col min="7" max="7" width="26.33203125" style="9" customWidth="1"/>
-    <col min="8" max="8" width="23.5" style="11" customWidth="1"/>
+    <col min="8" max="8" width="23.46484375" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="1" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:8" s="2" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="2:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:8" s="1" customFormat="1" ht="10.5" customHeight="1"/>
+    <row r="2" spans="2:8" s="2" customFormat="1" ht="3.75" customHeight="1"/>
+    <row r="3" spans="2:8" ht="33.75" customHeight="1">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1288,7 +1371,7 @@
       <c r="G3"/>
       <c r="H3"/>
     </row>
-    <row r="4" spans="2:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" ht="34.5" customHeight="1">
       <c r="B4" s="6" t="s">
         <v>15</v>
       </c>
@@ -1299,7 +1382,7 @@
       <c r="G4"/>
       <c r="H4"/>
     </row>
-    <row r="5" spans="2:8" s="3" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:8" s="3" customFormat="1" ht="42.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
@@ -1308,7 +1391,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="2:8" ht="26" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" ht="25.5">
       <c r="B6" s="7">
         <f>SUBTOTAL(109,Uhrzeit5[Arbeitsstunden])</f>
         <v>0</v>
@@ -1320,7 +1403,7 @@
       <c r="G6"/>
       <c r="H6"/>
     </row>
-    <row r="7" spans="2:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:8" ht="11.25" customHeight="1">
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -1329,7 +1412,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
     </row>
-    <row r="8" spans="2:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:8" ht="36.75" customHeight="1">
       <c r="B8" s="8" t="s">
         <v>1</v>
       </c>
@@ -1352,7 +1435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8" ht="20.25" customHeight="1">
       <c r="B9" s="13" t="s">
         <v>2</v>
       </c>
@@ -1374,7 +1457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:8" ht="20.25" customHeight="1">
       <c r="B10" s="13" t="s">
         <v>2</v>
       </c>
@@ -1396,7 +1479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:8" ht="20.25" customHeight="1">
       <c r="B11" s="13" t="s">
         <v>2</v>
       </c>
@@ -1418,7 +1501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:8" ht="20.25" customHeight="1">
       <c r="B12" s="13" t="s">
         <v>2</v>
       </c>
@@ -1440,7 +1523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:8" ht="20.25" customHeight="1">
       <c r="B13" s="13" t="s">
         <v>2</v>
       </c>
@@ -1477,30 +1560,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0">
+  <sheetPr codeName="Sheet1">
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:H13"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="118" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="20.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.5" customWidth="1"/>
+    <col min="1" max="1" width="2.46484375" customWidth="1"/>
     <col min="2" max="3" width="25.33203125" customWidth="1"/>
-    <col min="4" max="4" width="26.1640625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="26.1328125" style="9" customWidth="1"/>
     <col min="5" max="5" width="32" style="9" customWidth="1"/>
-    <col min="6" max="6" width="31.1640625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="31.1328125" style="9" customWidth="1"/>
     <col min="7" max="7" width="26.33203125" style="9" customWidth="1"/>
-    <col min="8" max="8" width="23.5" style="11" customWidth="1"/>
+    <col min="8" max="8" width="23.46484375" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="1" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:8" s="2" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="2:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:8" s="1" customFormat="1" ht="10.5" customHeight="1"/>
+    <row r="2" spans="2:8" s="2" customFormat="1" ht="3.75" customHeight="1"/>
+    <row r="3" spans="2:8" ht="33.75" customHeight="1">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1511,7 +1594,7 @@
       <c r="G3"/>
       <c r="H3"/>
     </row>
-    <row r="4" spans="2:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" ht="34.5" customHeight="1">
       <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
@@ -1522,7 +1605,7 @@
       <c r="G4"/>
       <c r="H4"/>
     </row>
-    <row r="5" spans="2:8" s="3" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:8" s="3" customFormat="1" ht="42.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
@@ -1531,10 +1614,10 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="2:8" ht="26" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" ht="25.5">
       <c r="B6" s="7">
         <f>SUBTOTAL(109,Uhrzeit[Arbeitsstunden])</f>
-        <v>0.75</v>
+        <v>6.5000000000000009</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -1543,7 +1626,7 @@
       <c r="G6"/>
       <c r="H6"/>
     </row>
-    <row r="7" spans="2:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:8" ht="11.25" customHeight="1">
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -1552,7 +1635,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
     </row>
-    <row r="8" spans="2:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:8" ht="36.75" customHeight="1">
       <c r="B8" s="8" t="s">
         <v>1</v>
       </c>
@@ -1575,7 +1658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8" ht="20.25" customHeight="1">
       <c r="B9" s="13">
         <v>42822</v>
       </c>
@@ -1583,7 +1666,7 @@
         <v>23</v>
       </c>
       <c r="D9" s="14">
-        <v>0.59375</v>
+        <v>0.48958333333333331</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
@@ -1592,32 +1675,30 @@
       </c>
       <c r="H9" s="10">
         <f>IFERROR(IF(COUNT(Uhrzeit[[#This Row],[Anwesenheitszeit]:[Abwesenheitszeit]])=4,(IF(Uhrzeit[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit[[#This Row],[Abwesenheitszeit]])-Uhrzeit[[#This Row],[Ende der Mittagspause]]+Uhrzeit[[#This Row],[Beginn der Mittagspause]]-Uhrzeit[[#This Row],[Anwesenheitszeit]],IF(AND(LEN(Uhrzeit[[#This Row],[Anwesenheitszeit]])&lt;&gt;0,LEN(Uhrzeit[[#This Row],[Abwesenheitszeit]])&lt;&gt;0),(IF(Uhrzeit[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit[[#This Row],[Abwesenheitszeit]])-Uhrzeit[[#This Row],[Anwesenheitszeit]],0))*24,0)</f>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>11</v>
+        <v>3.2500000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="20.25" customHeight="1">
+      <c r="B10" s="13">
+        <v>42829</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="14">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14">
+        <v>0.625</v>
       </c>
       <c r="H10" s="10">
         <f>IFERROR(IF(COUNT(Uhrzeit[[#This Row],[Anwesenheitszeit]:[Abwesenheitszeit]])=4,(IF(Uhrzeit[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit[[#This Row],[Abwesenheitszeit]])-Uhrzeit[[#This Row],[Ende der Mittagspause]]+Uhrzeit[[#This Row],[Beginn der Mittagspause]]-Uhrzeit[[#This Row],[Anwesenheitszeit]],IF(AND(LEN(Uhrzeit[[#This Row],[Anwesenheitszeit]])&lt;&gt;0,LEN(Uhrzeit[[#This Row],[Abwesenheitszeit]])&lt;&gt;0),(IF(Uhrzeit[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit[[#This Row],[Abwesenheitszeit]])-Uhrzeit[[#This Row],[Anwesenheitszeit]],0))*24,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3.2500000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="20.25" customHeight="1">
       <c r="B11" s="13" t="s">
         <v>2</v>
       </c>
@@ -1639,7 +1720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:8" ht="20.25" customHeight="1">
       <c r="B12" s="13" t="s">
         <v>2</v>
       </c>
@@ -1661,7 +1742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:8" ht="20.25" customHeight="1">
       <c r="B13" s="13" t="s">
         <v>2</v>
       </c>
@@ -1699,30 +1780,30 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:H13"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="20.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.5" customWidth="1"/>
+    <col min="1" max="1" width="2.46484375" customWidth="1"/>
     <col min="2" max="3" width="25.33203125" customWidth="1"/>
-    <col min="4" max="4" width="26.1640625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="26.1328125" style="9" customWidth="1"/>
     <col min="5" max="5" width="32" style="9" customWidth="1"/>
-    <col min="6" max="6" width="31.1640625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="31.1328125" style="9" customWidth="1"/>
     <col min="7" max="7" width="26.33203125" style="9" customWidth="1"/>
-    <col min="8" max="8" width="23.5" style="11" customWidth="1"/>
+    <col min="8" max="8" width="23.46484375" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="1" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:8" s="2" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="2:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:8" s="1" customFormat="1" ht="10.5" customHeight="1"/>
+    <row r="2" spans="2:8" s="2" customFormat="1" ht="3.75" customHeight="1"/>
+    <row r="3" spans="2:8" ht="33.75" customHeight="1">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1733,9 +1814,9 @@
       <c r="G3"/>
       <c r="H3"/>
     </row>
-    <row r="4" spans="2:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" ht="34.5" customHeight="1">
       <c r="B4" s="6" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4"/>
@@ -1744,7 +1825,7 @@
       <c r="G4"/>
       <c r="H4"/>
     </row>
-    <row r="5" spans="2:8" s="3" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:8" s="3" customFormat="1" ht="42.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
@@ -1753,9 +1834,9 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="2:8" ht="26" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" ht="25.5">
       <c r="B6" s="7">
-        <f>SUBTOTAL(109,Uhrzeit5[Arbeitsstunden])</f>
+        <f>SUBTOTAL(109,Uhrzeit8[Arbeitsstunden])</f>
         <v>0</v>
       </c>
       <c r="C6" s="7"/>
@@ -1765,7 +1846,7 @@
       <c r="G6"/>
       <c r="H6"/>
     </row>
-    <row r="7" spans="2:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:8" ht="11.25" customHeight="1">
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -1774,7 +1855,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
     </row>
-    <row r="8" spans="2:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:8" ht="36.75" customHeight="1">
       <c r="B8" s="8" t="s">
         <v>1</v>
       </c>
@@ -1797,7 +1878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8" ht="20.25" customHeight="1">
       <c r="B9" s="13" t="s">
         <v>2</v>
       </c>
@@ -1815,11 +1896,11 @@
         <v>11</v>
       </c>
       <c r="H9" s="10">
-        <f>IFERROR(IF(COUNT(Uhrzeit34[[#This Row],[Anwesenheitszeit]:[Abwesenheitszeit]])=4,(IF(Uhrzeit34[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit34[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit34[[#This Row],[Abwesenheitszeit]])-Uhrzeit34[[#This Row],[Ende der Mittagspause]]+Uhrzeit34[[#This Row],[Beginn der Mittagspause]]-Uhrzeit34[[#This Row],[Anwesenheitszeit]],IF(AND(LEN(Uhrzeit34[[#This Row],[Anwesenheitszeit]])&lt;&gt;0,LEN(Uhrzeit34[[#This Row],[Abwesenheitszeit]])&lt;&gt;0),(IF(Uhrzeit34[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit34[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit34[[#This Row],[Abwesenheitszeit]])-Uhrzeit34[[#This Row],[Anwesenheitszeit]],0))*24,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>IFERROR(IF(COUNT(Uhrzeit8[[#This Row],[Anwesenheitszeit]:[Abwesenheitszeit]])=4,(IF(Uhrzeit8[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit8[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit8[[#This Row],[Abwesenheitszeit]])-Uhrzeit8[[#This Row],[Ende der Mittagspause]]+Uhrzeit8[[#This Row],[Beginn der Mittagspause]]-Uhrzeit8[[#This Row],[Anwesenheitszeit]],IF(AND(LEN(Uhrzeit8[[#This Row],[Anwesenheitszeit]])&lt;&gt;0,LEN(Uhrzeit8[[#This Row],[Abwesenheitszeit]])&lt;&gt;0),(IF(Uhrzeit8[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit8[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit8[[#This Row],[Abwesenheitszeit]])-Uhrzeit8[[#This Row],[Anwesenheitszeit]],0))*24,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="20.25" customHeight="1">
       <c r="B10" s="13" t="s">
         <v>2</v>
       </c>
@@ -1837,11 +1918,11 @@
         <v>11</v>
       </c>
       <c r="H10" s="10">
-        <f>IFERROR(IF(COUNT(Uhrzeit34[[#This Row],[Anwesenheitszeit]:[Abwesenheitszeit]])=4,(IF(Uhrzeit34[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit34[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit34[[#This Row],[Abwesenheitszeit]])-Uhrzeit34[[#This Row],[Ende der Mittagspause]]+Uhrzeit34[[#This Row],[Beginn der Mittagspause]]-Uhrzeit34[[#This Row],[Anwesenheitszeit]],IF(AND(LEN(Uhrzeit34[[#This Row],[Anwesenheitszeit]])&lt;&gt;0,LEN(Uhrzeit34[[#This Row],[Abwesenheitszeit]])&lt;&gt;0),(IF(Uhrzeit34[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit34[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit34[[#This Row],[Abwesenheitszeit]])-Uhrzeit34[[#This Row],[Anwesenheitszeit]],0))*24,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>IFERROR(IF(COUNT(Uhrzeit8[[#This Row],[Anwesenheitszeit]:[Abwesenheitszeit]])=4,(IF(Uhrzeit8[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit8[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit8[[#This Row],[Abwesenheitszeit]])-Uhrzeit8[[#This Row],[Ende der Mittagspause]]+Uhrzeit8[[#This Row],[Beginn der Mittagspause]]-Uhrzeit8[[#This Row],[Anwesenheitszeit]],IF(AND(LEN(Uhrzeit8[[#This Row],[Anwesenheitszeit]])&lt;&gt;0,LEN(Uhrzeit8[[#This Row],[Abwesenheitszeit]])&lt;&gt;0),(IF(Uhrzeit8[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit8[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit8[[#This Row],[Abwesenheitszeit]])-Uhrzeit8[[#This Row],[Anwesenheitszeit]],0))*24,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="20.25" customHeight="1">
       <c r="B11" s="13" t="s">
         <v>2</v>
       </c>
@@ -1859,11 +1940,11 @@
         <v>11</v>
       </c>
       <c r="H11" s="10">
-        <f>IFERROR(IF(COUNT(Uhrzeit34[[#This Row],[Anwesenheitszeit]:[Abwesenheitszeit]])=4,(IF(Uhrzeit34[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit34[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit34[[#This Row],[Abwesenheitszeit]])-Uhrzeit34[[#This Row],[Ende der Mittagspause]]+Uhrzeit34[[#This Row],[Beginn der Mittagspause]]-Uhrzeit34[[#This Row],[Anwesenheitszeit]],IF(AND(LEN(Uhrzeit34[[#This Row],[Anwesenheitszeit]])&lt;&gt;0,LEN(Uhrzeit34[[#This Row],[Abwesenheitszeit]])&lt;&gt;0),(IF(Uhrzeit34[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit34[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit34[[#This Row],[Abwesenheitszeit]])-Uhrzeit34[[#This Row],[Anwesenheitszeit]],0))*24,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>IFERROR(IF(COUNT(Uhrzeit8[[#This Row],[Anwesenheitszeit]:[Abwesenheitszeit]])=4,(IF(Uhrzeit8[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit8[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit8[[#This Row],[Abwesenheitszeit]])-Uhrzeit8[[#This Row],[Ende der Mittagspause]]+Uhrzeit8[[#This Row],[Beginn der Mittagspause]]-Uhrzeit8[[#This Row],[Anwesenheitszeit]],IF(AND(LEN(Uhrzeit8[[#This Row],[Anwesenheitszeit]])&lt;&gt;0,LEN(Uhrzeit8[[#This Row],[Abwesenheitszeit]])&lt;&gt;0),(IF(Uhrzeit8[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit8[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit8[[#This Row],[Abwesenheitszeit]])-Uhrzeit8[[#This Row],[Anwesenheitszeit]],0))*24,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="20.25" customHeight="1">
       <c r="B12" s="13" t="s">
         <v>2</v>
       </c>
@@ -1881,11 +1962,11 @@
         <v>11</v>
       </c>
       <c r="H12" s="10">
-        <f>IFERROR(IF(COUNT(Uhrzeit34[[#This Row],[Anwesenheitszeit]:[Abwesenheitszeit]])=4,(IF(Uhrzeit34[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit34[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit34[[#This Row],[Abwesenheitszeit]])-Uhrzeit34[[#This Row],[Ende der Mittagspause]]+Uhrzeit34[[#This Row],[Beginn der Mittagspause]]-Uhrzeit34[[#This Row],[Anwesenheitszeit]],IF(AND(LEN(Uhrzeit34[[#This Row],[Anwesenheitszeit]])&lt;&gt;0,LEN(Uhrzeit34[[#This Row],[Abwesenheitszeit]])&lt;&gt;0),(IF(Uhrzeit34[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit34[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit34[[#This Row],[Abwesenheitszeit]])-Uhrzeit34[[#This Row],[Anwesenheitszeit]],0))*24,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>IFERROR(IF(COUNT(Uhrzeit8[[#This Row],[Anwesenheitszeit]:[Abwesenheitszeit]])=4,(IF(Uhrzeit8[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit8[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit8[[#This Row],[Abwesenheitszeit]])-Uhrzeit8[[#This Row],[Ende der Mittagspause]]+Uhrzeit8[[#This Row],[Beginn der Mittagspause]]-Uhrzeit8[[#This Row],[Anwesenheitszeit]],IF(AND(LEN(Uhrzeit8[[#This Row],[Anwesenheitszeit]])&lt;&gt;0,LEN(Uhrzeit8[[#This Row],[Abwesenheitszeit]])&lt;&gt;0),(IF(Uhrzeit8[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit8[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit8[[#This Row],[Abwesenheitszeit]])-Uhrzeit8[[#This Row],[Anwesenheitszeit]],0))*24,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="20.25" customHeight="1">
       <c r="B13" s="13" t="s">
         <v>2</v>
       </c>
@@ -1903,7 +1984,7 @@
         <v>11</v>
       </c>
       <c r="H13" s="10">
-        <f>IFERROR(IF(COUNT(Uhrzeit34[[#This Row],[Anwesenheitszeit]:[Abwesenheitszeit]])=4,(IF(Uhrzeit34[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit34[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit34[[#This Row],[Abwesenheitszeit]])-Uhrzeit34[[#This Row],[Ende der Mittagspause]]+Uhrzeit34[[#This Row],[Beginn der Mittagspause]]-Uhrzeit34[[#This Row],[Anwesenheitszeit]],IF(AND(LEN(Uhrzeit34[[#This Row],[Anwesenheitszeit]])&lt;&gt;0,LEN(Uhrzeit34[[#This Row],[Abwesenheitszeit]])&lt;&gt;0),(IF(Uhrzeit34[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit34[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit34[[#This Row],[Abwesenheitszeit]])-Uhrzeit34[[#This Row],[Anwesenheitszeit]],0))*24,0)</f>
+        <f>IFERROR(IF(COUNT(Uhrzeit8[[#This Row],[Anwesenheitszeit]:[Abwesenheitszeit]])=4,(IF(Uhrzeit8[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit8[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit8[[#This Row],[Abwesenheitszeit]])-Uhrzeit8[[#This Row],[Ende der Mittagspause]]+Uhrzeit8[[#This Row],[Beginn der Mittagspause]]-Uhrzeit8[[#This Row],[Anwesenheitszeit]],IF(AND(LEN(Uhrzeit8[[#This Row],[Anwesenheitszeit]])&lt;&gt;0,LEN(Uhrzeit8[[#This Row],[Abwesenheitszeit]])&lt;&gt;0),(IF(Uhrzeit8[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit8[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit8[[#This Row],[Abwesenheitszeit]])-Uhrzeit8[[#This Row],[Anwesenheitszeit]],0))*24,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1922,30 +2003,30 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:H13"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="20.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.5" customWidth="1"/>
+    <col min="1" max="1" width="2.46484375" customWidth="1"/>
     <col min="2" max="3" width="25.33203125" customWidth="1"/>
-    <col min="4" max="4" width="26.1640625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="26.1328125" style="9" customWidth="1"/>
     <col min="5" max="5" width="32" style="9" customWidth="1"/>
-    <col min="6" max="6" width="31.1640625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="31.1328125" style="9" customWidth="1"/>
     <col min="7" max="7" width="26.33203125" style="9" customWidth="1"/>
-    <col min="8" max="8" width="23.5" style="11" customWidth="1"/>
+    <col min="8" max="8" width="23.46484375" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="1" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:8" s="2" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="2:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:8" s="1" customFormat="1" ht="10.5" customHeight="1"/>
+    <row r="2" spans="2:8" s="2" customFormat="1" ht="3.75" customHeight="1"/>
+    <row r="3" spans="2:8" ht="33.75" customHeight="1">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1956,9 +2037,9 @@
       <c r="G3"/>
       <c r="H3"/>
     </row>
-    <row r="4" spans="2:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" ht="34.5" customHeight="1">
       <c r="B4" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4"/>
@@ -1967,7 +2048,7 @@
       <c r="G4"/>
       <c r="H4"/>
     </row>
-    <row r="5" spans="2:8" s="3" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:8" s="3" customFormat="1" ht="42.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
@@ -1976,7 +2057,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="2:8" ht="26" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" ht="25.5">
       <c r="B6" s="7">
         <f>SUBTOTAL(109,Uhrzeit5[Arbeitsstunden])</f>
         <v>0</v>
@@ -1988,7 +2069,7 @@
       <c r="G6"/>
       <c r="H6"/>
     </row>
-    <row r="7" spans="2:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:8" ht="11.25" customHeight="1">
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -1997,7 +2078,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
     </row>
-    <row r="8" spans="2:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:8" ht="36.75" customHeight="1">
       <c r="B8" s="8" t="s">
         <v>1</v>
       </c>
@@ -2020,7 +2101,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8" ht="20.25" customHeight="1">
       <c r="B9" s="13" t="s">
         <v>2</v>
       </c>
@@ -2038,11 +2119,11 @@
         <v>11</v>
       </c>
       <c r="H9" s="10">
-        <f>IFERROR(IF(COUNT(Uhrzeit3[[#This Row],[Anwesenheitszeit]:[Abwesenheitszeit]])=4,(IF(Uhrzeit3[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit3[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit3[[#This Row],[Abwesenheitszeit]])-Uhrzeit3[[#This Row],[Ende der Mittagspause]]+Uhrzeit3[[#This Row],[Beginn der Mittagspause]]-Uhrzeit3[[#This Row],[Anwesenheitszeit]],IF(AND(LEN(Uhrzeit3[[#This Row],[Anwesenheitszeit]])&lt;&gt;0,LEN(Uhrzeit3[[#This Row],[Abwesenheitszeit]])&lt;&gt;0),(IF(Uhrzeit3[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit3[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit3[[#This Row],[Abwesenheitszeit]])-Uhrzeit3[[#This Row],[Anwesenheitszeit]],0))*24,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>IFERROR(IF(COUNT(Uhrzeit34[[#This Row],[Anwesenheitszeit]:[Abwesenheitszeit]])=4,(IF(Uhrzeit34[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit34[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit34[[#This Row],[Abwesenheitszeit]])-Uhrzeit34[[#This Row],[Ende der Mittagspause]]+Uhrzeit34[[#This Row],[Beginn der Mittagspause]]-Uhrzeit34[[#This Row],[Anwesenheitszeit]],IF(AND(LEN(Uhrzeit34[[#This Row],[Anwesenheitszeit]])&lt;&gt;0,LEN(Uhrzeit34[[#This Row],[Abwesenheitszeit]])&lt;&gt;0),(IF(Uhrzeit34[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit34[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit34[[#This Row],[Abwesenheitszeit]])-Uhrzeit34[[#This Row],[Anwesenheitszeit]],0))*24,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="20.25" customHeight="1">
       <c r="B10" s="13" t="s">
         <v>2</v>
       </c>
@@ -2060,11 +2141,11 @@
         <v>11</v>
       </c>
       <c r="H10" s="10">
-        <f>IFERROR(IF(COUNT(Uhrzeit3[[#This Row],[Anwesenheitszeit]:[Abwesenheitszeit]])=4,(IF(Uhrzeit3[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit3[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit3[[#This Row],[Abwesenheitszeit]])-Uhrzeit3[[#This Row],[Ende der Mittagspause]]+Uhrzeit3[[#This Row],[Beginn der Mittagspause]]-Uhrzeit3[[#This Row],[Anwesenheitszeit]],IF(AND(LEN(Uhrzeit3[[#This Row],[Anwesenheitszeit]])&lt;&gt;0,LEN(Uhrzeit3[[#This Row],[Abwesenheitszeit]])&lt;&gt;0),(IF(Uhrzeit3[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit3[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit3[[#This Row],[Abwesenheitszeit]])-Uhrzeit3[[#This Row],[Anwesenheitszeit]],0))*24,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>IFERROR(IF(COUNT(Uhrzeit34[[#This Row],[Anwesenheitszeit]:[Abwesenheitszeit]])=4,(IF(Uhrzeit34[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit34[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit34[[#This Row],[Abwesenheitszeit]])-Uhrzeit34[[#This Row],[Ende der Mittagspause]]+Uhrzeit34[[#This Row],[Beginn der Mittagspause]]-Uhrzeit34[[#This Row],[Anwesenheitszeit]],IF(AND(LEN(Uhrzeit34[[#This Row],[Anwesenheitszeit]])&lt;&gt;0,LEN(Uhrzeit34[[#This Row],[Abwesenheitszeit]])&lt;&gt;0),(IF(Uhrzeit34[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit34[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit34[[#This Row],[Abwesenheitszeit]])-Uhrzeit34[[#This Row],[Anwesenheitszeit]],0))*24,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="20.25" customHeight="1">
       <c r="B11" s="13" t="s">
         <v>2</v>
       </c>
@@ -2082,11 +2163,11 @@
         <v>11</v>
       </c>
       <c r="H11" s="10">
-        <f>IFERROR(IF(COUNT(Uhrzeit3[[#This Row],[Anwesenheitszeit]:[Abwesenheitszeit]])=4,(IF(Uhrzeit3[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit3[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit3[[#This Row],[Abwesenheitszeit]])-Uhrzeit3[[#This Row],[Ende der Mittagspause]]+Uhrzeit3[[#This Row],[Beginn der Mittagspause]]-Uhrzeit3[[#This Row],[Anwesenheitszeit]],IF(AND(LEN(Uhrzeit3[[#This Row],[Anwesenheitszeit]])&lt;&gt;0,LEN(Uhrzeit3[[#This Row],[Abwesenheitszeit]])&lt;&gt;0),(IF(Uhrzeit3[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit3[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit3[[#This Row],[Abwesenheitszeit]])-Uhrzeit3[[#This Row],[Anwesenheitszeit]],0))*24,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>IFERROR(IF(COUNT(Uhrzeit34[[#This Row],[Anwesenheitszeit]:[Abwesenheitszeit]])=4,(IF(Uhrzeit34[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit34[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit34[[#This Row],[Abwesenheitszeit]])-Uhrzeit34[[#This Row],[Ende der Mittagspause]]+Uhrzeit34[[#This Row],[Beginn der Mittagspause]]-Uhrzeit34[[#This Row],[Anwesenheitszeit]],IF(AND(LEN(Uhrzeit34[[#This Row],[Anwesenheitszeit]])&lt;&gt;0,LEN(Uhrzeit34[[#This Row],[Abwesenheitszeit]])&lt;&gt;0),(IF(Uhrzeit34[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit34[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit34[[#This Row],[Abwesenheitszeit]])-Uhrzeit34[[#This Row],[Anwesenheitszeit]],0))*24,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="20.25" customHeight="1">
       <c r="B12" s="13" t="s">
         <v>2</v>
       </c>
@@ -2104,11 +2185,11 @@
         <v>11</v>
       </c>
       <c r="H12" s="10">
-        <f>IFERROR(IF(COUNT(Uhrzeit3[[#This Row],[Anwesenheitszeit]:[Abwesenheitszeit]])=4,(IF(Uhrzeit3[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit3[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit3[[#This Row],[Abwesenheitszeit]])-Uhrzeit3[[#This Row],[Ende der Mittagspause]]+Uhrzeit3[[#This Row],[Beginn der Mittagspause]]-Uhrzeit3[[#This Row],[Anwesenheitszeit]],IF(AND(LEN(Uhrzeit3[[#This Row],[Anwesenheitszeit]])&lt;&gt;0,LEN(Uhrzeit3[[#This Row],[Abwesenheitszeit]])&lt;&gt;0),(IF(Uhrzeit3[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit3[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit3[[#This Row],[Abwesenheitszeit]])-Uhrzeit3[[#This Row],[Anwesenheitszeit]],0))*24,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>IFERROR(IF(COUNT(Uhrzeit34[[#This Row],[Anwesenheitszeit]:[Abwesenheitszeit]])=4,(IF(Uhrzeit34[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit34[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit34[[#This Row],[Abwesenheitszeit]])-Uhrzeit34[[#This Row],[Ende der Mittagspause]]+Uhrzeit34[[#This Row],[Beginn der Mittagspause]]-Uhrzeit34[[#This Row],[Anwesenheitszeit]],IF(AND(LEN(Uhrzeit34[[#This Row],[Anwesenheitszeit]])&lt;&gt;0,LEN(Uhrzeit34[[#This Row],[Abwesenheitszeit]])&lt;&gt;0),(IF(Uhrzeit34[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit34[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit34[[#This Row],[Abwesenheitszeit]])-Uhrzeit34[[#This Row],[Anwesenheitszeit]],0))*24,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="20.25" customHeight="1">
       <c r="B13" s="13" t="s">
         <v>2</v>
       </c>
@@ -2126,7 +2207,7 @@
         <v>11</v>
       </c>
       <c r="H13" s="10">
-        <f>IFERROR(IF(COUNT(Uhrzeit3[[#This Row],[Anwesenheitszeit]:[Abwesenheitszeit]])=4,(IF(Uhrzeit3[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit3[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit3[[#This Row],[Abwesenheitszeit]])-Uhrzeit3[[#This Row],[Ende der Mittagspause]]+Uhrzeit3[[#This Row],[Beginn der Mittagspause]]-Uhrzeit3[[#This Row],[Anwesenheitszeit]],IF(AND(LEN(Uhrzeit3[[#This Row],[Anwesenheitszeit]])&lt;&gt;0,LEN(Uhrzeit3[[#This Row],[Abwesenheitszeit]])&lt;&gt;0),(IF(Uhrzeit3[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit3[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit3[[#This Row],[Abwesenheitszeit]])-Uhrzeit3[[#This Row],[Anwesenheitszeit]],0))*24,0)</f>
+        <f>IFERROR(IF(COUNT(Uhrzeit34[[#This Row],[Anwesenheitszeit]:[Abwesenheitszeit]])=4,(IF(Uhrzeit34[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit34[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit34[[#This Row],[Abwesenheitszeit]])-Uhrzeit34[[#This Row],[Ende der Mittagspause]]+Uhrzeit34[[#This Row],[Beginn der Mittagspause]]-Uhrzeit34[[#This Row],[Anwesenheitszeit]],IF(AND(LEN(Uhrzeit34[[#This Row],[Anwesenheitszeit]])&lt;&gt;0,LEN(Uhrzeit34[[#This Row],[Abwesenheitszeit]])&lt;&gt;0),(IF(Uhrzeit34[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit34[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit34[[#This Row],[Abwesenheitszeit]])-Uhrzeit34[[#This Row],[Anwesenheitszeit]],0))*24,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2145,31 +2226,30 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:H13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="20.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.5" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" customWidth="1"/>
-    <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.1640625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="2.46484375" customWidth="1"/>
+    <col min="2" max="3" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="26.1328125" style="9" customWidth="1"/>
     <col min="5" max="5" width="32" style="9" customWidth="1"/>
-    <col min="6" max="6" width="31.1640625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="31.1328125" style="9" customWidth="1"/>
     <col min="7" max="7" width="26.33203125" style="9" customWidth="1"/>
-    <col min="8" max="8" width="23.5" style="11" customWidth="1"/>
+    <col min="8" max="8" width="23.46484375" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="1" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:8" s="2" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="2:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:8" s="1" customFormat="1" ht="10.5" customHeight="1"/>
+    <row r="2" spans="2:8" s="2" customFormat="1" ht="3.75" customHeight="1"/>
+    <row r="3" spans="2:8" ht="33.75" customHeight="1">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -2180,9 +2260,9 @@
       <c r="G3"/>
       <c r="H3"/>
     </row>
-    <row r="4" spans="2:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" ht="34.5" customHeight="1">
       <c r="B4" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4"/>
@@ -2191,7 +2271,7 @@
       <c r="G4"/>
       <c r="H4"/>
     </row>
-    <row r="5" spans="2:8" s="3" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:8" s="3" customFormat="1" ht="42.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
@@ -2200,10 +2280,10 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="2:8" ht="26" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" ht="25.5">
       <c r="B6" s="7">
-        <f>SUBTOTAL(109,Uhrzeit37[Arbeitsstunden])</f>
-        <v>7.4999999999999973</v>
+        <f>SUBTOTAL(109,Uhrzeit5[Arbeitsstunden])</f>
+        <v>0</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -2212,7 +2292,7 @@
       <c r="G6"/>
       <c r="H6"/>
     </row>
-    <row r="7" spans="2:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:8" ht="11.25" customHeight="1">
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -2221,7 +2301,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
     </row>
-    <row r="8" spans="2:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:8" ht="36.75" customHeight="1">
       <c r="B8" s="8" t="s">
         <v>1</v>
       </c>
@@ -2244,7 +2324,231 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8" ht="20.25" customHeight="1">
+      <c r="B9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="10">
+        <f>IFERROR(IF(COUNT(Uhrzeit3[[#This Row],[Anwesenheitszeit]:[Abwesenheitszeit]])=4,(IF(Uhrzeit3[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit3[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit3[[#This Row],[Abwesenheitszeit]])-Uhrzeit3[[#This Row],[Ende der Mittagspause]]+Uhrzeit3[[#This Row],[Beginn der Mittagspause]]-Uhrzeit3[[#This Row],[Anwesenheitszeit]],IF(AND(LEN(Uhrzeit3[[#This Row],[Anwesenheitszeit]])&lt;&gt;0,LEN(Uhrzeit3[[#This Row],[Abwesenheitszeit]])&lt;&gt;0),(IF(Uhrzeit3[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit3[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit3[[#This Row],[Abwesenheitszeit]])-Uhrzeit3[[#This Row],[Anwesenheitszeit]],0))*24,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="20.25" customHeight="1">
+      <c r="B10" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="10">
+        <f>IFERROR(IF(COUNT(Uhrzeit3[[#This Row],[Anwesenheitszeit]:[Abwesenheitszeit]])=4,(IF(Uhrzeit3[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit3[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit3[[#This Row],[Abwesenheitszeit]])-Uhrzeit3[[#This Row],[Ende der Mittagspause]]+Uhrzeit3[[#This Row],[Beginn der Mittagspause]]-Uhrzeit3[[#This Row],[Anwesenheitszeit]],IF(AND(LEN(Uhrzeit3[[#This Row],[Anwesenheitszeit]])&lt;&gt;0,LEN(Uhrzeit3[[#This Row],[Abwesenheitszeit]])&lt;&gt;0),(IF(Uhrzeit3[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit3[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit3[[#This Row],[Abwesenheitszeit]])-Uhrzeit3[[#This Row],[Anwesenheitszeit]],0))*24,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="20.25" customHeight="1">
+      <c r="B11" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="10">
+        <f>IFERROR(IF(COUNT(Uhrzeit3[[#This Row],[Anwesenheitszeit]:[Abwesenheitszeit]])=4,(IF(Uhrzeit3[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit3[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit3[[#This Row],[Abwesenheitszeit]])-Uhrzeit3[[#This Row],[Ende der Mittagspause]]+Uhrzeit3[[#This Row],[Beginn der Mittagspause]]-Uhrzeit3[[#This Row],[Anwesenheitszeit]],IF(AND(LEN(Uhrzeit3[[#This Row],[Anwesenheitszeit]])&lt;&gt;0,LEN(Uhrzeit3[[#This Row],[Abwesenheitszeit]])&lt;&gt;0),(IF(Uhrzeit3[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit3[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit3[[#This Row],[Abwesenheitszeit]])-Uhrzeit3[[#This Row],[Anwesenheitszeit]],0))*24,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="20.25" customHeight="1">
+      <c r="B12" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="10">
+        <f>IFERROR(IF(COUNT(Uhrzeit3[[#This Row],[Anwesenheitszeit]:[Abwesenheitszeit]])=4,(IF(Uhrzeit3[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit3[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit3[[#This Row],[Abwesenheitszeit]])-Uhrzeit3[[#This Row],[Ende der Mittagspause]]+Uhrzeit3[[#This Row],[Beginn der Mittagspause]]-Uhrzeit3[[#This Row],[Anwesenheitszeit]],IF(AND(LEN(Uhrzeit3[[#This Row],[Anwesenheitszeit]])&lt;&gt;0,LEN(Uhrzeit3[[#This Row],[Abwesenheitszeit]])&lt;&gt;0),(IF(Uhrzeit3[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit3[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit3[[#This Row],[Abwesenheitszeit]])-Uhrzeit3[[#This Row],[Anwesenheitszeit]],0))*24,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="20.25" customHeight="1">
+      <c r="B13" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="10">
+        <f>IFERROR(IF(COUNT(Uhrzeit3[[#This Row],[Anwesenheitszeit]:[Abwesenheitszeit]])=4,(IF(Uhrzeit3[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit3[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit3[[#This Row],[Abwesenheitszeit]])-Uhrzeit3[[#This Row],[Ende der Mittagspause]]+Uhrzeit3[[#This Row],[Beginn der Mittagspause]]-Uhrzeit3[[#This Row],[Anwesenheitszeit]],IF(AND(LEN(Uhrzeit3[[#This Row],[Anwesenheitszeit]])&lt;&gt;0,LEN(Uhrzeit3[[#This Row],[Abwesenheitszeit]])&lt;&gt;0),(IF(Uhrzeit3[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit3[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit3[[#This Row],[Abwesenheitszeit]])-Uhrzeit3[[#This Row],[Anwesenheitszeit]],0))*24,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.4" right="0.4" top="0.4" bottom="0.4" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="95" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter differentFirst="1">
+    <oddFooter>Page &amp;P of &amp;N</oddFooter>
+  </headerFooter>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="4"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:H13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="20.25" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="2.46484375" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.1328125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="32" style="9" customWidth="1"/>
+    <col min="6" max="6" width="31.1328125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="26.33203125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="23.46484375" style="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" s="1" customFormat="1" ht="10.5" customHeight="1"/>
+    <row r="2" spans="2:8" s="2" customFormat="1" ht="3.75" customHeight="1"/>
+    <row r="3" spans="2:8" ht="33.75" customHeight="1">
+      <c r="B3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+    </row>
+    <row r="4" spans="2:8" ht="34.5" customHeight="1">
+      <c r="B4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+    </row>
+    <row r="5" spans="2:8" s="3" customFormat="1" ht="42.75" customHeight="1">
+      <c r="B5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="2:8" ht="25.5">
+      <c r="B6" s="7">
+        <f>SUBTOTAL(109,Uhrzeit37[Arbeitsstunden])</f>
+        <v>7.4999999999999973</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6"/>
+      <c r="H6"/>
+    </row>
+    <row r="7" spans="2:8" ht="11.25" customHeight="1">
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="2:8" ht="36.75" customHeight="1">
+      <c r="B8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="20.25" customHeight="1">
       <c r="B9" s="13">
         <v>42822</v>
       </c>
@@ -2264,7 +2568,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:8" ht="20.25" customHeight="1">
       <c r="B10" s="13">
         <v>42822</v>
       </c>
@@ -2284,7 +2588,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:8" ht="20.25" customHeight="1">
       <c r="B11" s="13">
         <v>42823</v>
       </c>
@@ -2304,7 +2608,7 @@
         <v>0.6666666666666643</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:8" ht="20.25" customHeight="1">
       <c r="B12" s="13">
         <v>42829</v>
       </c>
@@ -2324,7 +2628,7 @@
         <v>0.33333333333333348</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:8" ht="20.25" customHeight="1">
       <c r="B13" s="13">
         <v>42829</v>
       </c>

--- a/doc/Zeituebersicht.xlsx
+++ b/doc/Zeituebersicht.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\OneDrive\Studium\Git\DT_IT6_SS2017\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreas/Documents/Privat/Bildung/03_Studium/06_SoSe17/Vorlesungen/DT/00_git/DT_IT6_SS2017/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="458" windowWidth="28800" windowHeight="17438" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17440" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Team Meetings" sheetId="6" r:id="rId1"/>
@@ -36,23 +36,23 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="4">Philip!$8:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Team Meetings'!$8:$8</definedName>
   </definedNames>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="33">
   <si>
     <t>Arbeitszeittabelle</t>
   </si>
@@ -135,9 +135,6 @@
     <t>Erste Idee: Aufbau der Routenberechnung</t>
   </si>
   <si>
-    <t>Modellierung der Datenstrukturen</t>
-  </si>
-  <si>
     <t>Mindmap: Weitere Routen-Berechnungen</t>
   </si>
   <si>
@@ -145,17 +142,26 @@
   </si>
   <si>
     <t>Besprechung Allgemein</t>
+  </si>
+  <si>
+    <t>Arbeitsaufteilung und Bereichseingrenzung Routenbildung</t>
+  </si>
+  <si>
+    <t>Fertigstellung Projektplanung Dokumente</t>
+  </si>
+  <si>
+    <t>Beginn Entwicklung Datenmodel: Routenbildung</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="hh:mm:ss;@"/>
     <numFmt numFmtId="165" formatCode="hh:mm;@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,7 +264,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
@@ -302,14 +308,23 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Standard" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="59">
     <dxf>
@@ -343,7 +358,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -352,7 +367,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
     </dxf>
     <dxf>
       <fill>
@@ -394,7 +409,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -403,7 +418,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
     </dxf>
     <dxf>
       <fill>
@@ -445,7 +460,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -454,7 +469,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
     </dxf>
     <dxf>
       <fill>
@@ -496,7 +511,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -505,7 +520,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
     </dxf>
     <dxf>
       <fill>
@@ -547,7 +562,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -556,7 +571,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
     </dxf>
     <dxf>
       <fill>
@@ -598,7 +613,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -607,7 +622,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
     </dxf>
     <dxf>
       <fill>
@@ -649,7 +664,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -673,7 +688,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -682,7 +697,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
     </dxf>
     <dxf>
       <fill>
@@ -805,16 +820,16 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Uhrzeit8" displayName="Uhrzeit8" ref="B8:H13" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Uhrzeit8" displayName="Uhrzeit8" ref="B8:H13" totalsRowShown="0" headerRowDxfId="31">
   <autoFilter ref="B8:H13"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Datumsangaben" dataDxfId="6"/>
-    <tableColumn id="7" name="Thema" dataDxfId="5"/>
-    <tableColumn id="2" name="Anwesenheitszeit" dataDxfId="4"/>
-    <tableColumn id="3" name="Beginn der Mittagspause" dataDxfId="3"/>
-    <tableColumn id="4" name="Ende der Mittagspause" dataDxfId="2"/>
-    <tableColumn id="5" name="Abwesenheitszeit" dataDxfId="1"/>
-    <tableColumn id="6" name="Arbeitsstunden" dataDxfId="0">
+    <tableColumn id="1" name="Datumsangaben" dataDxfId="30"/>
+    <tableColumn id="7" name="Thema" dataDxfId="29"/>
+    <tableColumn id="2" name="Anwesenheitszeit" dataDxfId="28"/>
+    <tableColumn id="3" name="Beginn der Mittagspause" dataDxfId="27"/>
+    <tableColumn id="4" name="Ende der Mittagspause" dataDxfId="26"/>
+    <tableColumn id="5" name="Abwesenheitszeit" dataDxfId="25"/>
+    <tableColumn id="6" name="Arbeitsstunden" dataDxfId="24">
       <calculatedColumnFormula>IFERROR(IF(COUNT(Uhrzeit8[[#This Row],[Anwesenheitszeit]:[Abwesenheitszeit]])=4,(IF(Uhrzeit8[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit8[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit8[[#This Row],[Abwesenheitszeit]])-Uhrzeit8[[#This Row],[Ende der Mittagspause]]+Uhrzeit8[[#This Row],[Beginn der Mittagspause]]-Uhrzeit8[[#This Row],[Anwesenheitszeit]],IF(AND(LEN(Uhrzeit8[[#This Row],[Anwesenheitszeit]])&lt;&gt;0,LEN(Uhrzeit8[[#This Row],[Abwesenheitszeit]])&lt;&gt;0),(IF(Uhrzeit8[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit8[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit8[[#This Row],[Abwesenheitszeit]])-Uhrzeit8[[#This Row],[Anwesenheitszeit]],0))*24,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -828,16 +843,16 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Uhrzeit34" displayName="Uhrzeit34" ref="B8:H13" totalsRowShown="0" headerRowDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Uhrzeit34" displayName="Uhrzeit34" ref="B8:H13" totalsRowShown="0" headerRowDxfId="23">
   <autoFilter ref="B8:H13"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Datumsangaben" dataDxfId="30"/>
-    <tableColumn id="7" name="Thema" dataDxfId="29"/>
-    <tableColumn id="2" name="Anwesenheitszeit" dataDxfId="28"/>
-    <tableColumn id="3" name="Beginn der Mittagspause" dataDxfId="27"/>
-    <tableColumn id="4" name="Ende der Mittagspause" dataDxfId="26"/>
-    <tableColumn id="5" name="Abwesenheitszeit" dataDxfId="25"/>
-    <tableColumn id="6" name="Arbeitsstunden" dataDxfId="24">
+    <tableColumn id="1" name="Datumsangaben" dataDxfId="22"/>
+    <tableColumn id="7" name="Thema" dataDxfId="21"/>
+    <tableColumn id="2" name="Anwesenheitszeit" dataDxfId="20"/>
+    <tableColumn id="3" name="Beginn der Mittagspause" dataDxfId="19"/>
+    <tableColumn id="4" name="Ende der Mittagspause" dataDxfId="18"/>
+    <tableColumn id="5" name="Abwesenheitszeit" dataDxfId="17"/>
+    <tableColumn id="6" name="Arbeitsstunden" dataDxfId="16">
       <calculatedColumnFormula>IFERROR(IF(COUNT(Uhrzeit34[[#This Row],[Anwesenheitszeit]:[Abwesenheitszeit]])=4,(IF(Uhrzeit34[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit34[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit34[[#This Row],[Abwesenheitszeit]])-Uhrzeit34[[#This Row],[Ende der Mittagspause]]+Uhrzeit34[[#This Row],[Beginn der Mittagspause]]-Uhrzeit34[[#This Row],[Anwesenheitszeit]],IF(AND(LEN(Uhrzeit34[[#This Row],[Anwesenheitszeit]])&lt;&gt;0,LEN(Uhrzeit34[[#This Row],[Abwesenheitszeit]])&lt;&gt;0),(IF(Uhrzeit34[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit34[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit34[[#This Row],[Abwesenheitszeit]])-Uhrzeit34[[#This Row],[Anwesenheitszeit]],0))*24,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -851,16 +866,16 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Uhrzeit3" displayName="Uhrzeit3" ref="B8:H13" totalsRowShown="0" headerRowDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Uhrzeit3" displayName="Uhrzeit3" ref="B8:H13" totalsRowShown="0" headerRowDxfId="15">
   <autoFilter ref="B8:H13"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Datumsangaben" dataDxfId="22"/>
-    <tableColumn id="7" name="Thema" dataDxfId="21"/>
-    <tableColumn id="2" name="Anwesenheitszeit" dataDxfId="20"/>
-    <tableColumn id="3" name="Beginn der Mittagspause" dataDxfId="19"/>
-    <tableColumn id="4" name="Ende der Mittagspause" dataDxfId="18"/>
-    <tableColumn id="5" name="Abwesenheitszeit" dataDxfId="17"/>
-    <tableColumn id="6" name="Arbeitsstunden" dataDxfId="16">
+    <tableColumn id="1" name="Datumsangaben" dataDxfId="14"/>
+    <tableColumn id="7" name="Thema" dataDxfId="13"/>
+    <tableColumn id="2" name="Anwesenheitszeit" dataDxfId="12"/>
+    <tableColumn id="3" name="Beginn der Mittagspause" dataDxfId="11"/>
+    <tableColumn id="4" name="Ende der Mittagspause" dataDxfId="10"/>
+    <tableColumn id="5" name="Abwesenheitszeit" dataDxfId="9"/>
+    <tableColumn id="6" name="Arbeitsstunden" dataDxfId="8">
       <calculatedColumnFormula>IFERROR(IF(COUNT(Uhrzeit3[[#This Row],[Anwesenheitszeit]:[Abwesenheitszeit]])=4,(IF(Uhrzeit3[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit3[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit3[[#This Row],[Abwesenheitszeit]])-Uhrzeit3[[#This Row],[Ende der Mittagspause]]+Uhrzeit3[[#This Row],[Beginn der Mittagspause]]-Uhrzeit3[[#This Row],[Anwesenheitszeit]],IF(AND(LEN(Uhrzeit3[[#This Row],[Anwesenheitszeit]])&lt;&gt;0,LEN(Uhrzeit3[[#This Row],[Abwesenheitszeit]])&lt;&gt;0),(IF(Uhrzeit3[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit3[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit3[[#This Row],[Abwesenheitszeit]])-Uhrzeit3[[#This Row],[Anwesenheitszeit]],0))*24,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -874,16 +889,16 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Uhrzeit37" displayName="Uhrzeit37" ref="B8:H13" totalsRowShown="0" headerRowDxfId="15">
-  <autoFilter ref="B8:H13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Uhrzeit37" displayName="Uhrzeit37" ref="B8:H15" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="B8:H15"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Datumsangaben" dataDxfId="14"/>
-    <tableColumn id="7" name="Thema" dataDxfId="13"/>
-    <tableColumn id="2" name="Anwesenheitszeit" dataDxfId="12"/>
-    <tableColumn id="3" name="Beginn der Mittagspause" dataDxfId="11"/>
-    <tableColumn id="4" name="Ende der Mittagspause" dataDxfId="10"/>
-    <tableColumn id="5" name="Abwesenheitszeit" dataDxfId="9"/>
-    <tableColumn id="6" name="Arbeitsstunden" dataDxfId="8">
+    <tableColumn id="1" name="Datumsangaben" dataDxfId="6"/>
+    <tableColumn id="7" name="Thema" dataDxfId="5"/>
+    <tableColumn id="2" name="Anwesenheitszeit" dataDxfId="4"/>
+    <tableColumn id="3" name="Beginn der Mittagspause" dataDxfId="3"/>
+    <tableColumn id="4" name="Ende der Mittagspause" dataDxfId="2"/>
+    <tableColumn id="5" name="Abwesenheitszeit" dataDxfId="1"/>
+    <tableColumn id="6" name="Arbeitsstunden" dataDxfId="0">
       <calculatedColumnFormula>IFERROR(IF(COUNT(Uhrzeit37[[#This Row],[Anwesenheitszeit]:[Abwesenheitszeit]])=4,(IF(Uhrzeit37[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit37[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit37[[#This Row],[Abwesenheitszeit]])-Uhrzeit37[[#This Row],[Ende der Mittagspause]]+Uhrzeit37[[#This Row],[Beginn der Mittagspause]]-Uhrzeit37[[#This Row],[Anwesenheitszeit]],IF(AND(LEN(Uhrzeit37[[#This Row],[Anwesenheitszeit]])&lt;&gt;0,LEN(Uhrzeit37[[#This Row],[Abwesenheitszeit]])&lt;&gt;0),(IF(Uhrzeit37[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit37[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit37[[#This Row],[Abwesenheitszeit]])-Uhrzeit37[[#This Row],[Anwesenheitszeit]],0))*24,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1099,7 +1114,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1109,22 +1124,22 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="20.25" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.46484375" customWidth="1"/>
-    <col min="2" max="2" width="17.46484375" customWidth="1"/>
-    <col min="3" max="3" width="25.1328125" customWidth="1"/>
-    <col min="4" max="4" width="31.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.1328125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="23.796875" style="9" customWidth="1"/>
-    <col min="7" max="7" width="24.1328125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="2.5" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" customWidth="1"/>
+    <col min="4" max="4" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="23.83203125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="24.1640625" style="9" customWidth="1"/>
     <col min="8" max="8" width="19.33203125" style="9" customWidth="1"/>
-    <col min="9" max="9" width="16.46484375" style="11" customWidth="1"/>
+    <col min="9" max="9" width="16.5" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" s="1" customFormat="1" ht="10.5" customHeight="1"/>
-    <row r="2" spans="2:9" s="2" customFormat="1" ht="3.75" customHeight="1"/>
-    <row r="3" spans="2:9" ht="33.75" customHeight="1">
+    <row r="1" spans="2:9" s="1" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:9" s="2" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="2:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1136,7 +1151,7 @@
       <c r="H3"/>
       <c r="I3"/>
     </row>
-    <row r="4" spans="2:9" ht="34.5" customHeight="1">
+    <row r="4" spans="2:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>17</v>
       </c>
@@ -1148,7 +1163,7 @@
       <c r="H4"/>
       <c r="I4"/>
     </row>
-    <row r="5" spans="2:9" s="3" customFormat="1" ht="42.75" customHeight="1">
+    <row r="5" spans="2:9" s="3" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
@@ -1158,7 +1173,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="2:9" ht="25.5">
+    <row r="6" spans="2:9" ht="26" x14ac:dyDescent="0.3">
       <c r="B6" s="7">
         <f>SUBTOTAL(109,Uhrzeit6[Arbeitsstunden])</f>
         <v>3.5000000000000009</v>
@@ -1171,7 +1186,7 @@
       <c r="H6"/>
       <c r="I6"/>
     </row>
-    <row r="7" spans="2:9" ht="11.25" customHeight="1">
+    <row r="7" spans="2:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -1181,7 +1196,7 @@
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="2:9" ht="36.75" customHeight="1">
+    <row r="8" spans="2:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="8" t="s">
         <v>1</v>
       </c>
@@ -1207,7 +1222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="20.25" customHeight="1">
+    <row r="9" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="13">
         <v>42815</v>
       </c>
@@ -1230,7 +1245,7 @@
         <v>3.2500000000000004</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="20.25" customHeight="1">
+    <row r="10" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="13">
         <v>42822</v>
       </c>
@@ -1253,7 +1268,7 @@
         <v>0.25000000000000044</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="20.25" customHeight="1">
+    <row r="11" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="13" t="s">
         <v>2</v>
       </c>
@@ -1276,7 +1291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="20.25" customHeight="1">
+    <row r="12" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="13" t="s">
         <v>2</v>
       </c>
@@ -1299,7 +1314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="20.25" customHeight="1">
+    <row r="13" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="13" t="s">
         <v>2</v>
       </c>
@@ -1337,7 +1352,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1347,20 +1362,20 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="20.25" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.46484375" customWidth="1"/>
+    <col min="1" max="1" width="2.5" customWidth="1"/>
     <col min="2" max="3" width="25.33203125" customWidth="1"/>
-    <col min="4" max="4" width="26.1328125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="26.1640625" style="9" customWidth="1"/>
     <col min="5" max="5" width="32" style="9" customWidth="1"/>
-    <col min="6" max="6" width="31.1328125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="31.1640625" style="9" customWidth="1"/>
     <col min="7" max="7" width="26.33203125" style="9" customWidth="1"/>
-    <col min="8" max="8" width="23.46484375" style="11" customWidth="1"/>
+    <col min="8" max="8" width="23.5" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="1" customFormat="1" ht="10.5" customHeight="1"/>
-    <row r="2" spans="2:8" s="2" customFormat="1" ht="3.75" customHeight="1"/>
-    <row r="3" spans="2:8" ht="33.75" customHeight="1">
+    <row r="1" spans="2:8" s="1" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:8" s="2" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="2:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1371,7 +1386,7 @@
       <c r="G3"/>
       <c r="H3"/>
     </row>
-    <row r="4" spans="2:8" ht="34.5" customHeight="1">
+    <row r="4" spans="2:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>15</v>
       </c>
@@ -1382,7 +1397,7 @@
       <c r="G4"/>
       <c r="H4"/>
     </row>
-    <row r="5" spans="2:8" s="3" customFormat="1" ht="42.75" customHeight="1">
+    <row r="5" spans="2:8" s="3" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
@@ -1391,7 +1406,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="2:8" ht="25.5">
+    <row r="6" spans="2:8" ht="26" x14ac:dyDescent="0.3">
       <c r="B6" s="7">
         <f>SUBTOTAL(109,Uhrzeit5[Arbeitsstunden])</f>
         <v>0</v>
@@ -1403,7 +1418,7 @@
       <c r="G6"/>
       <c r="H6"/>
     </row>
-    <row r="7" spans="2:8" ht="11.25" customHeight="1">
+    <row r="7" spans="2:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -1412,7 +1427,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
     </row>
-    <row r="8" spans="2:8" ht="36.75" customHeight="1">
+    <row r="8" spans="2:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="8" t="s">
         <v>1</v>
       </c>
@@ -1435,7 +1450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="20.25" customHeight="1">
+    <row r="9" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="13" t="s">
         <v>2</v>
       </c>
@@ -1457,7 +1472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="20.25" customHeight="1">
+    <row r="10" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="13" t="s">
         <v>2</v>
       </c>
@@ -1479,7 +1494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="20.25" customHeight="1">
+    <row r="11" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="13" t="s">
         <v>2</v>
       </c>
@@ -1501,7 +1516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="20.25" customHeight="1">
+    <row r="12" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="13" t="s">
         <v>2</v>
       </c>
@@ -1523,7 +1538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="20.25" customHeight="1">
+    <row r="13" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="13" t="s">
         <v>2</v>
       </c>
@@ -1560,30 +1575,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1">
+  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0">
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:H13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="118" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="118" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="20.25" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.46484375" customWidth="1"/>
+    <col min="1" max="1" width="2.5" customWidth="1"/>
     <col min="2" max="3" width="25.33203125" customWidth="1"/>
-    <col min="4" max="4" width="26.1328125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="26.1640625" style="9" customWidth="1"/>
     <col min="5" max="5" width="32" style="9" customWidth="1"/>
-    <col min="6" max="6" width="31.1328125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="31.1640625" style="9" customWidth="1"/>
     <col min="7" max="7" width="26.33203125" style="9" customWidth="1"/>
-    <col min="8" max="8" width="23.46484375" style="11" customWidth="1"/>
+    <col min="8" max="8" width="23.5" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="1" customFormat="1" ht="10.5" customHeight="1"/>
-    <row r="2" spans="2:8" s="2" customFormat="1" ht="3.75" customHeight="1"/>
-    <row r="3" spans="2:8" ht="33.75" customHeight="1">
+    <row r="1" spans="2:8" s="1" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:8" s="2" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="2:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1594,7 +1609,7 @@
       <c r="G3"/>
       <c r="H3"/>
     </row>
-    <row r="4" spans="2:8" ht="34.5" customHeight="1">
+    <row r="4" spans="2:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
@@ -1605,7 +1620,7 @@
       <c r="G4"/>
       <c r="H4"/>
     </row>
-    <row r="5" spans="2:8" s="3" customFormat="1" ht="42.75" customHeight="1">
+    <row r="5" spans="2:8" s="3" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
@@ -1614,7 +1629,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="2:8" ht="25.5">
+    <row r="6" spans="2:8" ht="26" x14ac:dyDescent="0.3">
       <c r="B6" s="7">
         <f>SUBTOTAL(109,Uhrzeit[Arbeitsstunden])</f>
         <v>6.5000000000000009</v>
@@ -1626,7 +1641,7 @@
       <c r="G6"/>
       <c r="H6"/>
     </row>
-    <row r="7" spans="2:8" ht="11.25" customHeight="1">
+    <row r="7" spans="2:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -1635,7 +1650,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
     </row>
-    <row r="8" spans="2:8" ht="36.75" customHeight="1">
+    <row r="8" spans="2:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="8" t="s">
         <v>1</v>
       </c>
@@ -1658,7 +1673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="20.25" customHeight="1">
+    <row r="9" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="13">
         <v>42822</v>
       </c>
@@ -1678,12 +1693,12 @@
         <v>3.2500000000000004</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="20.25" customHeight="1">
+    <row r="10" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="13">
         <v>42829</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="14">
         <v>0.48958333333333331</v>
@@ -1698,7 +1713,7 @@
         <v>3.2500000000000004</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="20.25" customHeight="1">
+    <row r="11" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="13" t="s">
         <v>2</v>
       </c>
@@ -1720,7 +1735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="20.25" customHeight="1">
+    <row r="12" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="13" t="s">
         <v>2</v>
       </c>
@@ -1742,7 +1757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="20.25" customHeight="1">
+    <row r="13" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="13" t="s">
         <v>2</v>
       </c>
@@ -1780,7 +1795,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1790,20 +1805,20 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="20.25" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.46484375" customWidth="1"/>
+    <col min="1" max="1" width="2.5" customWidth="1"/>
     <col min="2" max="3" width="25.33203125" customWidth="1"/>
-    <col min="4" max="4" width="26.1328125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="26.1640625" style="9" customWidth="1"/>
     <col min="5" max="5" width="32" style="9" customWidth="1"/>
-    <col min="6" max="6" width="31.1328125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="31.1640625" style="9" customWidth="1"/>
     <col min="7" max="7" width="26.33203125" style="9" customWidth="1"/>
-    <col min="8" max="8" width="23.46484375" style="11" customWidth="1"/>
+    <col min="8" max="8" width="23.5" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="1" customFormat="1" ht="10.5" customHeight="1"/>
-    <row r="2" spans="2:8" s="2" customFormat="1" ht="3.75" customHeight="1"/>
-    <row r="3" spans="2:8" ht="33.75" customHeight="1">
+    <row r="1" spans="2:8" s="1" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:8" s="2" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="2:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1814,9 +1829,9 @@
       <c r="G3"/>
       <c r="H3"/>
     </row>
-    <row r="4" spans="2:8" ht="34.5" customHeight="1">
+    <row r="4" spans="2:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4"/>
@@ -1825,7 +1840,7 @@
       <c r="G4"/>
       <c r="H4"/>
     </row>
-    <row r="5" spans="2:8" s="3" customFormat="1" ht="42.75" customHeight="1">
+    <row r="5" spans="2:8" s="3" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
@@ -1834,7 +1849,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="2:8" ht="25.5">
+    <row r="6" spans="2:8" ht="26" x14ac:dyDescent="0.3">
       <c r="B6" s="7">
         <f>SUBTOTAL(109,Uhrzeit8[Arbeitsstunden])</f>
         <v>0</v>
@@ -1846,7 +1861,7 @@
       <c r="G6"/>
       <c r="H6"/>
     </row>
-    <row r="7" spans="2:8" ht="11.25" customHeight="1">
+    <row r="7" spans="2:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -1855,7 +1870,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
     </row>
-    <row r="8" spans="2:8" ht="36.75" customHeight="1">
+    <row r="8" spans="2:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="8" t="s">
         <v>1</v>
       </c>
@@ -1878,7 +1893,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="20.25" customHeight="1">
+    <row r="9" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="13" t="s">
         <v>2</v>
       </c>
@@ -1900,7 +1915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="20.25" customHeight="1">
+    <row r="10" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="13" t="s">
         <v>2</v>
       </c>
@@ -1922,7 +1937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="20.25" customHeight="1">
+    <row r="11" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="13" t="s">
         <v>2</v>
       </c>
@@ -1944,7 +1959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="20.25" customHeight="1">
+    <row r="12" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="13" t="s">
         <v>2</v>
       </c>
@@ -1966,7 +1981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="20.25" customHeight="1">
+    <row r="13" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="13" t="s">
         <v>2</v>
       </c>
@@ -2003,7 +2018,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2013,20 +2028,20 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="20.25" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.46484375" customWidth="1"/>
+    <col min="1" max="1" width="2.5" customWidth="1"/>
     <col min="2" max="3" width="25.33203125" customWidth="1"/>
-    <col min="4" max="4" width="26.1328125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="26.1640625" style="9" customWidth="1"/>
     <col min="5" max="5" width="32" style="9" customWidth="1"/>
-    <col min="6" max="6" width="31.1328125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="31.1640625" style="9" customWidth="1"/>
     <col min="7" max="7" width="26.33203125" style="9" customWidth="1"/>
-    <col min="8" max="8" width="23.46484375" style="11" customWidth="1"/>
+    <col min="8" max="8" width="23.5" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="1" customFormat="1" ht="10.5" customHeight="1"/>
-    <row r="2" spans="2:8" s="2" customFormat="1" ht="3.75" customHeight="1"/>
-    <row r="3" spans="2:8" ht="33.75" customHeight="1">
+    <row r="1" spans="2:8" s="1" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:8" s="2" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="2:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -2037,7 +2052,7 @@
       <c r="G3"/>
       <c r="H3"/>
     </row>
-    <row r="4" spans="2:8" ht="34.5" customHeight="1">
+    <row r="4" spans="2:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
@@ -2048,7 +2063,7 @@
       <c r="G4"/>
       <c r="H4"/>
     </row>
-    <row r="5" spans="2:8" s="3" customFormat="1" ht="42.75" customHeight="1">
+    <row r="5" spans="2:8" s="3" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
@@ -2057,7 +2072,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="2:8" ht="25.5">
+    <row r="6" spans="2:8" ht="26" x14ac:dyDescent="0.3">
       <c r="B6" s="7">
         <f>SUBTOTAL(109,Uhrzeit5[Arbeitsstunden])</f>
         <v>0</v>
@@ -2069,7 +2084,7 @@
       <c r="G6"/>
       <c r="H6"/>
     </row>
-    <row r="7" spans="2:8" ht="11.25" customHeight="1">
+    <row r="7" spans="2:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -2078,7 +2093,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
     </row>
-    <row r="8" spans="2:8" ht="36.75" customHeight="1">
+    <row r="8" spans="2:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="8" t="s">
         <v>1</v>
       </c>
@@ -2101,7 +2116,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="20.25" customHeight="1">
+    <row r="9" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="13" t="s">
         <v>2</v>
       </c>
@@ -2123,7 +2138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="20.25" customHeight="1">
+    <row r="10" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="13" t="s">
         <v>2</v>
       </c>
@@ -2145,7 +2160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="20.25" customHeight="1">
+    <row r="11" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="13" t="s">
         <v>2</v>
       </c>
@@ -2167,7 +2182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="20.25" customHeight="1">
+    <row r="12" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="13" t="s">
         <v>2</v>
       </c>
@@ -2189,7 +2204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="20.25" customHeight="1">
+    <row r="13" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="13" t="s">
         <v>2</v>
       </c>
@@ -2226,7 +2241,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2236,20 +2251,20 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="20.25" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.46484375" customWidth="1"/>
+    <col min="1" max="1" width="2.5" customWidth="1"/>
     <col min="2" max="3" width="25.33203125" customWidth="1"/>
-    <col min="4" max="4" width="26.1328125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="26.1640625" style="9" customWidth="1"/>
     <col min="5" max="5" width="32" style="9" customWidth="1"/>
-    <col min="6" max="6" width="31.1328125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="31.1640625" style="9" customWidth="1"/>
     <col min="7" max="7" width="26.33203125" style="9" customWidth="1"/>
-    <col min="8" max="8" width="23.46484375" style="11" customWidth="1"/>
+    <col min="8" max="8" width="23.5" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="1" customFormat="1" ht="10.5" customHeight="1"/>
-    <row r="2" spans="2:8" s="2" customFormat="1" ht="3.75" customHeight="1"/>
-    <row r="3" spans="2:8" ht="33.75" customHeight="1">
+    <row r="1" spans="2:8" s="1" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:8" s="2" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="2:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -2260,7 +2275,7 @@
       <c r="G3"/>
       <c r="H3"/>
     </row>
-    <row r="4" spans="2:8" ht="34.5" customHeight="1">
+    <row r="4" spans="2:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
@@ -2271,7 +2286,7 @@
       <c r="G4"/>
       <c r="H4"/>
     </row>
-    <row r="5" spans="2:8" s="3" customFormat="1" ht="42.75" customHeight="1">
+    <row r="5" spans="2:8" s="3" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
@@ -2280,7 +2295,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="2:8" ht="25.5">
+    <row r="6" spans="2:8" ht="26" x14ac:dyDescent="0.3">
       <c r="B6" s="7">
         <f>SUBTOTAL(109,Uhrzeit5[Arbeitsstunden])</f>
         <v>0</v>
@@ -2292,7 +2307,7 @@
       <c r="G6"/>
       <c r="H6"/>
     </row>
-    <row r="7" spans="2:8" ht="11.25" customHeight="1">
+    <row r="7" spans="2:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -2301,7 +2316,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
     </row>
-    <row r="8" spans="2:8" ht="36.75" customHeight="1">
+    <row r="8" spans="2:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="8" t="s">
         <v>1</v>
       </c>
@@ -2324,7 +2339,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="20.25" customHeight="1">
+    <row r="9" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="13" t="s">
         <v>2</v>
       </c>
@@ -2346,7 +2361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="20.25" customHeight="1">
+    <row r="10" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="13" t="s">
         <v>2</v>
       </c>
@@ -2368,7 +2383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="20.25" customHeight="1">
+    <row r="11" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="13" t="s">
         <v>2</v>
       </c>
@@ -2390,7 +2405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="20.25" customHeight="1">
+    <row r="12" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="13" t="s">
         <v>2</v>
       </c>
@@ -2412,7 +2427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="20.25" customHeight="1">
+    <row r="13" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="13" t="s">
         <v>2</v>
       </c>
@@ -2449,31 +2464,31 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:H13"/>
+  <dimension ref="B1:H15"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="20.25" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.46484375" customWidth="1"/>
+    <col min="1" max="1" width="2.5" customWidth="1"/>
     <col min="2" max="2" width="25.33203125" customWidth="1"/>
-    <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.1328125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="32" style="9" customWidth="1"/>
-    <col min="6" max="6" width="31.1328125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="45.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.1640625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="32" style="9" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="31.1640625" style="9" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="26.33203125" style="9" customWidth="1"/>
-    <col min="8" max="8" width="23.46484375" style="11" customWidth="1"/>
+    <col min="8" max="8" width="23.5" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="1" customFormat="1" ht="10.5" customHeight="1"/>
-    <row r="2" spans="2:8" s="2" customFormat="1" ht="3.75" customHeight="1"/>
-    <row r="3" spans="2:8" ht="33.75" customHeight="1">
+    <row r="1" spans="2:8" s="1" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:8" s="2" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="2:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -2484,7 +2499,7 @@
       <c r="G3"/>
       <c r="H3"/>
     </row>
-    <row r="4" spans="2:8" ht="34.5" customHeight="1">
+    <row r="4" spans="2:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
@@ -2495,7 +2510,7 @@
       <c r="G4"/>
       <c r="H4"/>
     </row>
-    <row r="5" spans="2:8" s="3" customFormat="1" ht="42.75" customHeight="1">
+    <row r="5" spans="2:8" s="3" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
@@ -2504,10 +2519,10 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="2:8" ht="25.5">
+    <row r="6" spans="2:8" ht="26" x14ac:dyDescent="0.3">
       <c r="B6" s="7">
         <f>SUBTOTAL(109,Uhrzeit37[Arbeitsstunden])</f>
-        <v>7.4999999999999973</v>
+        <v>8.2499999999999964</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -2516,7 +2531,7 @@
       <c r="G6"/>
       <c r="H6"/>
     </row>
-    <row r="7" spans="2:8" ht="11.25" customHeight="1">
+    <row r="7" spans="2:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -2525,7 +2540,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
     </row>
-    <row r="8" spans="2:8" ht="36.75" customHeight="1">
+    <row r="8" spans="2:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="8" t="s">
         <v>1</v>
       </c>
@@ -2548,7 +2563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="20.25" customHeight="1">
+    <row r="9" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="13">
         <v>42822</v>
       </c>
@@ -2568,7 +2583,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="20.25" customHeight="1">
+    <row r="10" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="13">
         <v>42822</v>
       </c>
@@ -2588,7 +2603,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="20.25" customHeight="1">
+    <row r="11" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="13">
         <v>42823</v>
       </c>
@@ -2608,12 +2623,12 @@
         <v>0.6666666666666643</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="20.25" customHeight="1">
+    <row r="12" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="13">
         <v>42829</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="14">
         <v>0.44444444444444442</v>
@@ -2628,12 +2643,12 @@
         <v>0.33333333333333348</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="20.25" customHeight="1">
+    <row r="13" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="13">
         <v>42829</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D13" s="14">
         <v>0.48958333333333331</v>
@@ -2641,11 +2656,51 @@
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14">
-        <v>0.63541666666666663</v>
+        <v>0.53125</v>
       </c>
       <c r="H13" s="10">
         <f>IFERROR(IF(COUNT(Uhrzeit37[[#This Row],[Anwesenheitszeit]:[Abwesenheitszeit]])=4,(IF(Uhrzeit37[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit37[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit37[[#This Row],[Abwesenheitszeit]])-Uhrzeit37[[#This Row],[Ende der Mittagspause]]+Uhrzeit37[[#This Row],[Beginn der Mittagspause]]-Uhrzeit37[[#This Row],[Anwesenheitszeit]],IF(AND(LEN(Uhrzeit37[[#This Row],[Anwesenheitszeit]])&lt;&gt;0,LEN(Uhrzeit37[[#This Row],[Abwesenheitszeit]])&lt;&gt;0),(IF(Uhrzeit37[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit37[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit37[[#This Row],[Abwesenheitszeit]])-Uhrzeit37[[#This Row],[Anwesenheitszeit]],0))*24,0)</f>
-        <v>3.4999999999999996</v>
+        <v>1.0000000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="15">
+        <v>42829</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="17">
+        <v>0.53125</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="H14" s="11">
+        <f>IFERROR(IF(COUNT(Uhrzeit37[[#This Row],[Anwesenheitszeit]:[Abwesenheitszeit]])=4,(IF(Uhrzeit37[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit37[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit37[[#This Row],[Abwesenheitszeit]])-Uhrzeit37[[#This Row],[Ende der Mittagspause]]+Uhrzeit37[[#This Row],[Beginn der Mittagspause]]-Uhrzeit37[[#This Row],[Anwesenheitszeit]],IF(AND(LEN(Uhrzeit37[[#This Row],[Anwesenheitszeit]])&lt;&gt;0,LEN(Uhrzeit37[[#This Row],[Abwesenheitszeit]])&lt;&gt;0),(IF(Uhrzeit37[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit37[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit37[[#This Row],[Abwesenheitszeit]])-Uhrzeit37[[#This Row],[Anwesenheitszeit]],0))*24,0)</f>
+        <v>2.0000000000000009</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="15">
+        <v>42829</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="17">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H15" s="11">
+        <f>IFERROR(IF(COUNT(Uhrzeit37[[#This Row],[Anwesenheitszeit]:[Abwesenheitszeit]])=4,(IF(Uhrzeit37[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit37[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit37[[#This Row],[Abwesenheitszeit]])-Uhrzeit37[[#This Row],[Ende der Mittagspause]]+Uhrzeit37[[#This Row],[Beginn der Mittagspause]]-Uhrzeit37[[#This Row],[Anwesenheitszeit]],IF(AND(LEN(Uhrzeit37[[#This Row],[Anwesenheitszeit]])&lt;&gt;0,LEN(Uhrzeit37[[#This Row],[Abwesenheitszeit]])&lt;&gt;0),(IF(Uhrzeit37[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit37[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit37[[#This Row],[Abwesenheitszeit]])-Uhrzeit37[[#This Row],[Anwesenheitszeit]],0))*24,0)</f>
+        <v>1.2499999999999982</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Zeituebersicht.xlsx
+++ b/doc/Zeituebersicht.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreas/Documents/Privat/Bildung/03_Studium/06_SoSe17/Vorlesungen/DT/00_git/dt_it6_ss2017/doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreas/Documents/Privat/Bildung/03_Studium/06_SoSe17/Vorlesungen/DT/00_git/DT_IT6_SS2017/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="31">
   <si>
     <t>Arbeitszeittabelle</t>
   </si>
@@ -136,6 +136,12 @@
   </si>
   <si>
     <t>Mindmap: Weitere Routen-Berechnungen</t>
+  </si>
+  <si>
+    <t>Entwicklungsstart: Route-Library</t>
+  </si>
+  <si>
+    <t>Git-Repository Problembehebungen (Pull-Requests, Merges...)</t>
   </si>
 </sst>
 </file>
@@ -249,7 +255,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
@@ -291,6 +297,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -791,8 +806,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Uhrzeit37" displayName="Uhrzeit37" ref="B8:H13" totalsRowShown="0" headerRowDxfId="7" headerRowCellStyle="Heading 3">
-  <autoFilter ref="B8:H13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Uhrzeit37" displayName="Uhrzeit37" ref="B8:H15" totalsRowShown="0" headerRowDxfId="7" headerRowCellStyle="Heading 3">
+  <autoFilter ref="B8:H15"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Datumsangaben" dataDxfId="6"/>
     <tableColumn id="7" name="Thema" dataDxfId="5"/>
@@ -2149,20 +2164,20 @@
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:H13"/>
+  <dimension ref="B1:H15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.5" customWidth="1"/>
     <col min="2" max="2" width="25.33203125" customWidth="1"/>
-    <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.33203125" customWidth="1"/>
     <col min="4" max="4" width="26.1640625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="32" style="9" customWidth="1"/>
-    <col min="6" max="6" width="31.1640625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" style="9" customWidth="1"/>
     <col min="7" max="7" width="26.33203125" style="9" customWidth="1"/>
     <col min="8" max="8" width="23.5" style="11" customWidth="1"/>
   </cols>
@@ -2203,7 +2218,7 @@
     <row r="6" spans="2:8" ht="26" x14ac:dyDescent="0.3">
       <c r="B6" s="7">
         <f>SUBTOTAL(109,Uhrzeit37[Arbeitsstunden])</f>
-        <v>7.4999999999999973</v>
+        <v>9.8333333333333304</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -2342,6 +2357,46 @@
       <c r="H13" s="10">
         <f>IFERROR(IF(COUNT(Uhrzeit37[[#This Row],[Anwesenheitszeit]:[Abwesenheitszeit]])=4,(IF(Uhrzeit37[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit37[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit37[[#This Row],[Abwesenheitszeit]])-Uhrzeit37[[#This Row],[Ende der Mittagspause]]+Uhrzeit37[[#This Row],[Beginn der Mittagspause]]-Uhrzeit37[[#This Row],[Anwesenheitszeit]],IF(AND(LEN(Uhrzeit37[[#This Row],[Anwesenheitszeit]])&lt;&gt;0,LEN(Uhrzeit37[[#This Row],[Abwesenheitszeit]])&lt;&gt;0),(IF(Uhrzeit37[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit37[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit37[[#This Row],[Abwesenheitszeit]])-Uhrzeit37[[#This Row],[Anwesenheitszeit]],0))*24,0)</f>
         <v>3.4999999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="15">
+        <v>42829</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="17">
+        <v>0.84722222222222221</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17">
+        <v>0.93055555555555547</v>
+      </c>
+      <c r="H14" s="11">
+        <f>IFERROR(IF(COUNT(Uhrzeit37[[#This Row],[Anwesenheitszeit]:[Abwesenheitszeit]])=4,(IF(Uhrzeit37[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit37[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit37[[#This Row],[Abwesenheitszeit]])-Uhrzeit37[[#This Row],[Ende der Mittagspause]]+Uhrzeit37[[#This Row],[Beginn der Mittagspause]]-Uhrzeit37[[#This Row],[Anwesenheitszeit]],IF(AND(LEN(Uhrzeit37[[#This Row],[Anwesenheitszeit]])&lt;&gt;0,LEN(Uhrzeit37[[#This Row],[Abwesenheitszeit]])&lt;&gt;0),(IF(Uhrzeit37[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit37[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit37[[#This Row],[Abwesenheitszeit]])-Uhrzeit37[[#This Row],[Anwesenheitszeit]],0))*24,0)</f>
+        <v>1.9999999999999982</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="15">
+        <v>42836</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="17">
+        <v>0.375</v>
+      </c>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H15" s="11">
+        <f>IFERROR(IF(COUNT(Uhrzeit37[[#This Row],[Anwesenheitszeit]:[Abwesenheitszeit]])=4,(IF(Uhrzeit37[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit37[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit37[[#This Row],[Abwesenheitszeit]])-Uhrzeit37[[#This Row],[Ende der Mittagspause]]+Uhrzeit37[[#This Row],[Beginn der Mittagspause]]-Uhrzeit37[[#This Row],[Anwesenheitszeit]],IF(AND(LEN(Uhrzeit37[[#This Row],[Anwesenheitszeit]])&lt;&gt;0,LEN(Uhrzeit37[[#This Row],[Abwesenheitszeit]])&lt;&gt;0),(IF(Uhrzeit37[[#This Row],[Abwesenheitszeit]]&lt;Uhrzeit37[[#This Row],[Anwesenheitszeit]],1,0)+Uhrzeit37[[#This Row],[Abwesenheitszeit]])-Uhrzeit37[[#This Row],[Anwesenheitszeit]],0))*24,0)</f>
+        <v>0.33333333333333348</v>
       </c>
     </row>
   </sheetData>
